--- a/spreadsheets/new/GSE111727.0.xlsx
+++ b/spreadsheets/new/GSE111727.0.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geryl/PycharmProjects/load-project/spreadsheets/new/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F83B39-760F-EA40-8DBA-871945343E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="22400" windowHeight="14160" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell_suspension" sheetId="1" r:id="rId1"/>
@@ -17,12 +23,12 @@
     <sheet name="Sequencing_protocol" sheetId="8" r:id="rId8"/>
     <sheet name="Specimen_from_organism" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="2793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7759" uniqueCount="2794">
   <si>
     <t>CELL_SUSPENSION.BIOMATERIAL_CORE.BIOMATERIAL_ID.USER_FRIENDLY (Required)</t>
   </si>
@@ -8401,13 +8407,16 @@
   </si>
   <si>
     <t>collection_protocol.protocol_core.protocol_id</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8444,6 +8453,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8490,7 +8507,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8522,9 +8539,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8556,6 +8591,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -8731,75 +8784,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG392"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="73.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="57.7109375" customWidth="1"/>
-    <col min="11" max="11" width="85.7109375" customWidth="1"/>
-    <col min="12" max="12" width="69.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="70.7109375" customWidth="1"/>
-    <col min="16" max="16" width="57.7109375" customWidth="1"/>
-    <col min="17" max="17" width="54.7109375" customWidth="1"/>
-    <col min="18" max="18" width="68.7109375" customWidth="1"/>
-    <col min="19" max="19" width="62.7109375" customWidth="1"/>
-    <col min="20" max="20" width="81.7109375" customWidth="1"/>
-    <col min="21" max="21" width="61.7109375" customWidth="1"/>
-    <col min="22" max="22" width="195.7109375" customWidth="1"/>
-    <col min="23" max="23" width="62.7109375" customWidth="1"/>
-    <col min="24" max="24" width="150.7109375" customWidth="1"/>
-    <col min="25" max="25" width="78.7109375" customWidth="1"/>
-    <col min="26" max="26" width="64.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="163.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="52.7109375" customWidth="1"/>
-    <col min="33" max="33" width="63.7109375" customWidth="1"/>
-    <col min="34" max="34" width="59.7109375" customWidth="1"/>
-    <col min="35" max="35" width="108.7109375" customWidth="1"/>
-    <col min="36" max="36" width="108.7109375" customWidth="1"/>
-    <col min="37" max="37" width="69.7109375" customWidth="1"/>
-    <col min="38" max="38" width="58.7109375" customWidth="1"/>
-    <col min="39" max="39" width="141.7109375" customWidth="1"/>
-    <col min="40" max="40" width="117.7109375" customWidth="1"/>
-    <col min="41" max="41" width="80.7109375" customWidth="1"/>
-    <col min="42" max="42" width="73.7109375" customWidth="1"/>
-    <col min="43" max="43" width="71.7109375" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" customWidth="1"/>
-    <col min="45" max="45" width="67.7109375" customWidth="1"/>
-    <col min="46" max="46" width="41.7109375" customWidth="1"/>
-    <col min="47" max="47" width="84.7109375" customWidth="1"/>
-    <col min="48" max="48" width="104.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="88.7109375" customWidth="1"/>
-    <col min="52" max="52" width="69.7109375" customWidth="1"/>
-    <col min="53" max="53" width="58.7109375" customWidth="1"/>
-    <col min="54" max="54" width="141.7109375" customWidth="1"/>
-    <col min="55" max="55" width="67.7109375" customWidth="1"/>
-    <col min="56" max="56" width="58.7109375" customWidth="1"/>
-    <col min="57" max="57" width="141.7109375" customWidth="1"/>
-    <col min="58" max="58" width="79.7109375" customWidth="1"/>
-    <col min="59" max="59" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="73.6640625" customWidth="1"/>
+    <col min="2" max="3" width="71.6640625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="57.6640625" customWidth="1"/>
+    <col min="11" max="11" width="85.6640625" customWidth="1"/>
+    <col min="12" max="12" width="69.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="70.6640625" customWidth="1"/>
+    <col min="16" max="16" width="57.6640625" customWidth="1"/>
+    <col min="17" max="17" width="54.6640625" customWidth="1"/>
+    <col min="18" max="18" width="68.6640625" customWidth="1"/>
+    <col min="19" max="19" width="62.6640625" customWidth="1"/>
+    <col min="20" max="20" width="81.6640625" customWidth="1"/>
+    <col min="21" max="21" width="61.6640625" customWidth="1"/>
+    <col min="22" max="22" width="195.6640625" customWidth="1"/>
+    <col min="23" max="23" width="62.6640625" customWidth="1"/>
+    <col min="24" max="24" width="150.6640625" customWidth="1"/>
+    <col min="25" max="25" width="78.6640625" customWidth="1"/>
+    <col min="26" max="26" width="64.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="163.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="52.6640625" customWidth="1"/>
+    <col min="33" max="33" width="63.6640625" customWidth="1"/>
+    <col min="34" max="34" width="59.6640625" customWidth="1"/>
+    <col min="35" max="36" width="108.6640625" customWidth="1"/>
+    <col min="37" max="37" width="69.6640625" customWidth="1"/>
+    <col min="38" max="38" width="58.6640625" customWidth="1"/>
+    <col min="39" max="39" width="141.6640625" customWidth="1"/>
+    <col min="40" max="40" width="117.6640625" customWidth="1"/>
+    <col min="41" max="41" width="80.6640625" customWidth="1"/>
+    <col min="42" max="42" width="73.6640625" customWidth="1"/>
+    <col min="43" max="43" width="71.6640625" customWidth="1"/>
+    <col min="44" max="44" width="32.6640625" customWidth="1"/>
+    <col min="45" max="45" width="67.6640625" customWidth="1"/>
+    <col min="46" max="46" width="41.6640625" customWidth="1"/>
+    <col min="47" max="47" width="84.6640625" customWidth="1"/>
+    <col min="48" max="50" width="104.6640625" customWidth="1"/>
+    <col min="51" max="51" width="88.6640625" customWidth="1"/>
+    <col min="52" max="52" width="69.6640625" customWidth="1"/>
+    <col min="53" max="53" width="58.6640625" customWidth="1"/>
+    <col min="54" max="54" width="141.6640625" customWidth="1"/>
+    <col min="55" max="55" width="67.6640625" customWidth="1"/>
+    <col min="56" max="56" width="58.6640625" customWidth="1"/>
+    <col min="57" max="57" width="141.6640625" customWidth="1"/>
+    <col min="58" max="58" width="79.6640625" customWidth="1"/>
+    <col min="59" max="59" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8978,7 +9027,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:59">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -9157,7 +9206,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -9315,7 +9364,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>148</v>
       </c>
@@ -9494,12 +9543,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>208</v>
       </c>
@@ -9528,7 +9577,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -9557,7 +9606,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -9586,7 +9635,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>222</v>
       </c>
@@ -9615,7 +9664,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>225</v>
       </c>
@@ -9644,7 +9693,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>228</v>
       </c>
@@ -9673,7 +9722,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -9702,7 +9751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -9731,7 +9780,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>237</v>
       </c>
@@ -9760,7 +9809,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:59">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>240</v>
       </c>
@@ -9789,7 +9838,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="16" spans="1:59">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>243</v>
       </c>
@@ -9818,7 +9867,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>246</v>
       </c>
@@ -9847,7 +9896,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -9876,7 +9925,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>252</v>
       </c>
@@ -9905,7 +9954,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>255</v>
       </c>
@@ -9934,7 +9983,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -9963,7 +10012,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>261</v>
       </c>
@@ -9992,7 +10041,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>264</v>
       </c>
@@ -10021,7 +10070,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>267</v>
       </c>
@@ -10050,7 +10099,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>270</v>
       </c>
@@ -10079,7 +10128,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>273</v>
       </c>
@@ -10108,7 +10157,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -10137,7 +10186,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>279</v>
       </c>
@@ -10166,7 +10215,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>282</v>
       </c>
@@ -10195,7 +10244,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>285</v>
       </c>
@@ -10224,7 +10273,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>288</v>
       </c>
@@ -10253,7 +10302,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>291</v>
       </c>
@@ -10282,7 +10331,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:41">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>294</v>
       </c>
@@ -10311,7 +10360,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>297</v>
       </c>
@@ -10340,7 +10389,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="1:41">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>300</v>
       </c>
@@ -10369,7 +10418,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>303</v>
       </c>
@@ -10398,7 +10447,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="37" spans="1:41">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>306</v>
       </c>
@@ -10427,7 +10476,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="38" spans="1:41">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>309</v>
       </c>
@@ -10456,7 +10505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>312</v>
       </c>
@@ -10485,7 +10534,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>315</v>
       </c>
@@ -10514,7 +10563,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>318</v>
       </c>
@@ -10543,7 +10592,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>321</v>
       </c>
@@ -10572,7 +10621,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>324</v>
       </c>
@@ -10601,7 +10650,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>327</v>
       </c>
@@ -10630,7 +10679,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:41">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>330</v>
       </c>
@@ -10659,7 +10708,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>333</v>
       </c>
@@ -10688,7 +10737,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>336</v>
       </c>
@@ -10717,7 +10766,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>339</v>
       </c>
@@ -10746,7 +10795,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="49" spans="1:41">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>342</v>
       </c>
@@ -10775,7 +10824,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="50" spans="1:41">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>345</v>
       </c>
@@ -10804,7 +10853,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="51" spans="1:41">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>348</v>
       </c>
@@ -10833,7 +10882,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="52" spans="1:41">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -10862,7 +10911,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:41">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -10891,7 +10940,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:41">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>357</v>
       </c>
@@ -10920,7 +10969,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:41">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>360</v>
       </c>
@@ -10949,7 +10998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="56" spans="1:41">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>363</v>
       </c>
@@ -10978,7 +11027,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="57" spans="1:41">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>366</v>
       </c>
@@ -11007,7 +11056,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="58" spans="1:41">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>369</v>
       </c>
@@ -11036,7 +11085,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:41">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -11065,7 +11114,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:41">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>375</v>
       </c>
@@ -11094,7 +11143,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="1:41">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>378</v>
       </c>
@@ -11123,7 +11172,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="62" spans="1:41">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>381</v>
       </c>
@@ -11152,7 +11201,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="63" spans="1:41">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>384</v>
       </c>
@@ -11181,7 +11230,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:41">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -11210,7 +11259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="65" spans="1:41">
+    <row r="65" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>390</v>
       </c>
@@ -11239,7 +11288,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="66" spans="1:41">
+    <row r="66" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>393</v>
       </c>
@@ -11268,7 +11317,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="67" spans="1:41">
+    <row r="67" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>396</v>
       </c>
@@ -11297,7 +11346,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:41">
+    <row r="68" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>399</v>
       </c>
@@ -11326,7 +11375,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:41">
+    <row r="69" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>402</v>
       </c>
@@ -11355,7 +11404,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="70" spans="1:41">
+    <row r="70" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>405</v>
       </c>
@@ -11384,7 +11433,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:41">
+    <row r="71" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>408</v>
       </c>
@@ -11413,7 +11462,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:41">
+    <row r="72" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>411</v>
       </c>
@@ -11442,7 +11491,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:41">
+    <row r="73" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>414</v>
       </c>
@@ -11471,7 +11520,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="74" spans="1:41">
+    <row r="74" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>417</v>
       </c>
@@ -11500,7 +11549,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="75" spans="1:41">
+    <row r="75" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>420</v>
       </c>
@@ -11529,7 +11578,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>423</v>
       </c>
@@ -11558,7 +11607,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>426</v>
       </c>
@@ -11587,7 +11636,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>429</v>
       </c>
@@ -11616,7 +11665,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="79" spans="1:41">
+    <row r="79" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>432</v>
       </c>
@@ -11645,7 +11694,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:41">
+    <row r="80" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>435</v>
       </c>
@@ -11674,7 +11723,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:41">
+    <row r="81" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>438</v>
       </c>
@@ -11703,7 +11752,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:41">
+    <row r="82" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>441</v>
       </c>
@@ -11732,7 +11781,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:41">
+    <row r="83" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>444</v>
       </c>
@@ -11761,7 +11810,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="84" spans="1:41">
+    <row r="84" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>447</v>
       </c>
@@ -11790,7 +11839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="85" spans="1:41">
+    <row r="85" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>450</v>
       </c>
@@ -11819,7 +11868,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:41">
+    <row r="86" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>453</v>
       </c>
@@ -11848,7 +11897,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="87" spans="1:41">
+    <row r="87" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>456</v>
       </c>
@@ -11877,7 +11926,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="88" spans="1:41">
+    <row r="88" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>459</v>
       </c>
@@ -11906,7 +11955,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="89" spans="1:41">
+    <row r="89" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>462</v>
       </c>
@@ -11935,7 +11984,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:41">
+    <row r="90" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>465</v>
       </c>
@@ -11964,7 +12013,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:41">
+    <row r="91" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>468</v>
       </c>
@@ -11993,7 +12042,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="92" spans="1:41">
+    <row r="92" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>471</v>
       </c>
@@ -12022,7 +12071,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="93" spans="1:41">
+    <row r="93" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>474</v>
       </c>
@@ -12051,7 +12100,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" spans="1:41">
+    <row r="94" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>477</v>
       </c>
@@ -12080,7 +12129,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:41">
+    <row r="95" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>480</v>
       </c>
@@ -12109,7 +12158,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="96" spans="1:41">
+    <row r="96" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>483</v>
       </c>
@@ -12138,7 +12187,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:41">
+    <row r="97" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>486</v>
       </c>
@@ -12167,7 +12216,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="98" spans="1:41">
+    <row r="98" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>489</v>
       </c>
@@ -12196,7 +12245,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="99" spans="1:41">
+    <row r="99" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>492</v>
       </c>
@@ -12225,7 +12274,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:41">
+    <row r="100" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>495</v>
       </c>
@@ -12254,7 +12303,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:41">
+    <row r="101" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>498</v>
       </c>
@@ -12283,7 +12332,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:41">
+    <row r="102" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>501</v>
       </c>
@@ -12315,7 +12364,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="103" spans="1:41">
+    <row r="103" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>506</v>
       </c>
@@ -12347,7 +12396,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="104" spans="1:41">
+    <row r="104" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>509</v>
       </c>
@@ -12379,7 +12428,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="105" spans="1:41">
+    <row r="105" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>512</v>
       </c>
@@ -12411,7 +12460,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="106" spans="1:41">
+    <row r="106" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>515</v>
       </c>
@@ -12443,7 +12492,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="107" spans="1:41">
+    <row r="107" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>518</v>
       </c>
@@ -12475,7 +12524,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="108" spans="1:41">
+    <row r="108" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>521</v>
       </c>
@@ -12507,7 +12556,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="109" spans="1:41">
+    <row r="109" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>524</v>
       </c>
@@ -12539,7 +12588,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="110" spans="1:41">
+    <row r="110" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>527</v>
       </c>
@@ -12571,7 +12620,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="111" spans="1:41">
+    <row r="111" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>530</v>
       </c>
@@ -12603,7 +12652,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="112" spans="1:41">
+    <row r="112" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>533</v>
       </c>
@@ -12635,7 +12684,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:41">
+    <row r="113" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>536</v>
       </c>
@@ -12667,7 +12716,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="114" spans="1:41">
+    <row r="114" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>539</v>
       </c>
@@ -12699,7 +12748,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="115" spans="1:41">
+    <row r="115" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>542</v>
       </c>
@@ -12731,7 +12780,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="116" spans="1:41">
+    <row r="116" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>545</v>
       </c>
@@ -12763,7 +12812,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="117" spans="1:41">
+    <row r="117" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>548</v>
       </c>
@@ -12795,7 +12844,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="118" spans="1:41">
+    <row r="118" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>551</v>
       </c>
@@ -12827,7 +12876,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="119" spans="1:41">
+    <row r="119" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>554</v>
       </c>
@@ -12859,7 +12908,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="120" spans="1:41">
+    <row r="120" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>557</v>
       </c>
@@ -12891,7 +12940,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="121" spans="1:41">
+    <row r="121" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>560</v>
       </c>
@@ -12923,7 +12972,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="122" spans="1:41">
+    <row r="122" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>563</v>
       </c>
@@ -12955,7 +13004,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="123" spans="1:41">
+    <row r="123" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>566</v>
       </c>
@@ -12987,7 +13036,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="1:41">
+    <row r="124" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>569</v>
       </c>
@@ -13019,7 +13068,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="125" spans="1:41">
+    <row r="125" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>572</v>
       </c>
@@ -13051,7 +13100,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="126" spans="1:41">
+    <row r="126" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>575</v>
       </c>
@@ -13083,7 +13132,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:41">
+    <row r="127" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>578</v>
       </c>
@@ -13115,7 +13164,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="128" spans="1:41">
+    <row r="128" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>581</v>
       </c>
@@ -13147,7 +13196,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>584</v>
       </c>
@@ -13179,7 +13228,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>587</v>
       </c>
@@ -13211,7 +13260,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>590</v>
       </c>
@@ -13243,7 +13292,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>593</v>
       </c>
@@ -13275,7 +13324,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>596</v>
       </c>
@@ -13307,7 +13356,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>599</v>
       </c>
@@ -13339,7 +13388,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>602</v>
       </c>
@@ -13371,7 +13420,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>605</v>
       </c>
@@ -13403,7 +13452,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>608</v>
       </c>
@@ -13435,7 +13484,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>611</v>
       </c>
@@ -13467,7 +13516,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>614</v>
       </c>
@@ -13499,7 +13548,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>617</v>
       </c>
@@ -13531,7 +13580,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>620</v>
       </c>
@@ -13563,7 +13612,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>623</v>
       </c>
@@ -13595,7 +13644,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>626</v>
       </c>
@@ -13627,7 +13676,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>629</v>
       </c>
@@ -13659,7 +13708,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="145" spans="1:41">
+    <row r="145" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>632</v>
       </c>
@@ -13691,7 +13740,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="146" spans="1:41">
+    <row r="146" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>635</v>
       </c>
@@ -13723,7 +13772,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="147" spans="1:41">
+    <row r="147" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>638</v>
       </c>
@@ -13755,7 +13804,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="148" spans="1:41">
+    <row r="148" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>641</v>
       </c>
@@ -13787,7 +13836,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="149" spans="1:41">
+    <row r="149" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>644</v>
       </c>
@@ -13819,7 +13868,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="150" spans="1:41">
+    <row r="150" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>647</v>
       </c>
@@ -13851,7 +13900,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="151" spans="1:41">
+    <row r="151" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>650</v>
       </c>
@@ -13883,7 +13932,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="152" spans="1:41">
+    <row r="152" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>653</v>
       </c>
@@ -13915,7 +13964,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="153" spans="1:41">
+    <row r="153" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>656</v>
       </c>
@@ -13947,7 +13996,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154" spans="1:41">
+    <row r="154" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>659</v>
       </c>
@@ -13979,7 +14028,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="155" spans="1:41">
+    <row r="155" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>662</v>
       </c>
@@ -14011,7 +14060,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="156" spans="1:41">
+    <row r="156" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>665</v>
       </c>
@@ -14043,7 +14092,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="157" spans="1:41">
+    <row r="157" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>668</v>
       </c>
@@ -14075,7 +14124,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="158" spans="1:41">
+    <row r="158" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>671</v>
       </c>
@@ -14107,7 +14156,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="159" spans="1:41">
+    <row r="159" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>674</v>
       </c>
@@ -14139,7 +14188,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="160" spans="1:41">
+    <row r="160" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>677</v>
       </c>
@@ -14171,7 +14220,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>680</v>
       </c>
@@ -14203,7 +14252,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>683</v>
       </c>
@@ -14235,7 +14284,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>686</v>
       </c>
@@ -14267,7 +14316,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>689</v>
       </c>
@@ -14299,7 +14348,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>692</v>
       </c>
@@ -14331,7 +14380,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>695</v>
       </c>
@@ -14363,7 +14412,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>698</v>
       </c>
@@ -14395,7 +14444,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>701</v>
       </c>
@@ -14427,7 +14476,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>704</v>
       </c>
@@ -14459,7 +14508,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>707</v>
       </c>
@@ -14491,7 +14540,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>710</v>
       </c>
@@ -14523,7 +14572,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>713</v>
       </c>
@@ -14555,7 +14604,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>716</v>
       </c>
@@ -14587,7 +14636,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>719</v>
       </c>
@@ -14619,7 +14668,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>722</v>
       </c>
@@ -14651,7 +14700,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>725</v>
       </c>
@@ -14683,7 +14732,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>728</v>
       </c>
@@ -14715,7 +14764,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>731</v>
       </c>
@@ -14747,7 +14796,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>734</v>
       </c>
@@ -14779,7 +14828,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>737</v>
       </c>
@@ -14811,7 +14860,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>740</v>
       </c>
@@ -14843,7 +14892,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>743</v>
       </c>
@@ -14875,7 +14924,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>746</v>
       </c>
@@ -14907,7 +14956,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>749</v>
       </c>
@@ -14939,7 +14988,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>752</v>
       </c>
@@ -14971,7 +15020,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>755</v>
       </c>
@@ -15003,7 +15052,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>758</v>
       </c>
@@ -15035,7 +15084,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>761</v>
       </c>
@@ -15067,7 +15116,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>764</v>
       </c>
@@ -15099,7 +15148,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>767</v>
       </c>
@@ -15131,7 +15180,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>770</v>
       </c>
@@ -15163,7 +15212,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>773</v>
       </c>
@@ -15195,7 +15244,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="193" spans="1:41">
+    <row r="193" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>776</v>
       </c>
@@ -15227,7 +15276,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="194" spans="1:41">
+    <row r="194" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>779</v>
       </c>
@@ -15259,7 +15308,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="195" spans="1:41">
+    <row r="195" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>782</v>
       </c>
@@ -15291,7 +15340,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="196" spans="1:41">
+    <row r="196" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>785</v>
       </c>
@@ -15323,7 +15372,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="197" spans="1:41">
+    <row r="197" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>788</v>
       </c>
@@ -15355,7 +15404,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="198" spans="1:41">
+    <row r="198" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>791</v>
       </c>
@@ -15387,7 +15436,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="199" spans="1:41">
+    <row r="199" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>796</v>
       </c>
@@ -15419,7 +15468,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="200" spans="1:41">
+    <row r="200" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>799</v>
       </c>
@@ -15451,7 +15500,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="201" spans="1:41">
+    <row r="201" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>802</v>
       </c>
@@ -15483,7 +15532,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="202" spans="1:41">
+    <row r="202" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>805</v>
       </c>
@@ -15515,7 +15564,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="203" spans="1:41">
+    <row r="203" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>808</v>
       </c>
@@ -15547,7 +15596,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="204" spans="1:41">
+    <row r="204" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>811</v>
       </c>
@@ -15579,7 +15628,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="205" spans="1:41">
+    <row r="205" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>814</v>
       </c>
@@ -15611,7 +15660,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="206" spans="1:41">
+    <row r="206" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>817</v>
       </c>
@@ -15643,7 +15692,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="207" spans="1:41">
+    <row r="207" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>820</v>
       </c>
@@ -15675,7 +15724,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="208" spans="1:41">
+    <row r="208" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>823</v>
       </c>
@@ -15707,7 +15756,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="209" spans="1:41">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>826</v>
       </c>
@@ -15739,7 +15788,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="210" spans="1:41">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>829</v>
       </c>
@@ -15771,7 +15820,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="211" spans="1:41">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>832</v>
       </c>
@@ -15803,7 +15852,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="212" spans="1:41">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>835</v>
       </c>
@@ -15835,7 +15884,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="213" spans="1:41">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>838</v>
       </c>
@@ -15867,7 +15916,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="214" spans="1:41">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>841</v>
       </c>
@@ -15899,7 +15948,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="215" spans="1:41">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>844</v>
       </c>
@@ -15931,7 +15980,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="216" spans="1:41">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>847</v>
       </c>
@@ -15963,7 +16012,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="217" spans="1:41">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>850</v>
       </c>
@@ -15995,7 +16044,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="218" spans="1:41">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>853</v>
       </c>
@@ -16027,7 +16076,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="219" spans="1:41">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>856</v>
       </c>
@@ -16059,7 +16108,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="220" spans="1:41">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>859</v>
       </c>
@@ -16091,7 +16140,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="221" spans="1:41">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>862</v>
       </c>
@@ -16123,7 +16172,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="222" spans="1:41">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>865</v>
       </c>
@@ -16155,7 +16204,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="223" spans="1:41">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>868</v>
       </c>
@@ -16187,7 +16236,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="224" spans="1:41">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>871</v>
       </c>
@@ -16219,7 +16268,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="225" spans="1:41">
+    <row r="225" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>874</v>
       </c>
@@ -16251,7 +16300,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="226" spans="1:41">
+    <row r="226" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>877</v>
       </c>
@@ -16283,7 +16332,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="227" spans="1:41">
+    <row r="227" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>880</v>
       </c>
@@ -16315,7 +16364,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="228" spans="1:41">
+    <row r="228" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>883</v>
       </c>
@@ -16347,7 +16396,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="229" spans="1:41">
+    <row r="229" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>886</v>
       </c>
@@ -16379,7 +16428,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="230" spans="1:41">
+    <row r="230" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>889</v>
       </c>
@@ -16411,7 +16460,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="231" spans="1:41">
+    <row r="231" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>892</v>
       </c>
@@ -16443,7 +16492,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="232" spans="1:41">
+    <row r="232" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>895</v>
       </c>
@@ -16475,7 +16524,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="233" spans="1:41">
+    <row r="233" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>898</v>
       </c>
@@ -16507,7 +16556,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="234" spans="1:41">
+    <row r="234" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>901</v>
       </c>
@@ -16539,7 +16588,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="235" spans="1:41">
+    <row r="235" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>904</v>
       </c>
@@ -16571,7 +16620,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="236" spans="1:41">
+    <row r="236" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>907</v>
       </c>
@@ -16603,7 +16652,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="237" spans="1:41">
+    <row r="237" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>910</v>
       </c>
@@ -16635,7 +16684,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="238" spans="1:41">
+    <row r="238" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>913</v>
       </c>
@@ -16667,7 +16716,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="239" spans="1:41">
+    <row r="239" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>916</v>
       </c>
@@ -16699,7 +16748,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="240" spans="1:41">
+    <row r="240" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>919</v>
       </c>
@@ -16731,7 +16780,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="241" spans="1:41">
+    <row r="241" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>922</v>
       </c>
@@ -16763,7 +16812,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="242" spans="1:41">
+    <row r="242" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>925</v>
       </c>
@@ -16795,7 +16844,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="243" spans="1:41">
+    <row r="243" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>928</v>
       </c>
@@ -16827,7 +16876,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="244" spans="1:41">
+    <row r="244" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>931</v>
       </c>
@@ -16859,7 +16908,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="245" spans="1:41">
+    <row r="245" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>934</v>
       </c>
@@ -16891,7 +16940,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="246" spans="1:41">
+    <row r="246" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>937</v>
       </c>
@@ -16923,7 +16972,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="247" spans="1:41">
+    <row r="247" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>940</v>
       </c>
@@ -16955,7 +17004,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="248" spans="1:41">
+    <row r="248" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>943</v>
       </c>
@@ -16987,7 +17036,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="249" spans="1:41">
+    <row r="249" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>946</v>
       </c>
@@ -17019,7 +17068,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="250" spans="1:41">
+    <row r="250" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>949</v>
       </c>
@@ -17051,7 +17100,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="251" spans="1:41">
+    <row r="251" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>952</v>
       </c>
@@ -17083,7 +17132,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="252" spans="1:41">
+    <row r="252" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>955</v>
       </c>
@@ -17115,7 +17164,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="253" spans="1:41">
+    <row r="253" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>958</v>
       </c>
@@ -17147,7 +17196,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="254" spans="1:41">
+    <row r="254" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>961</v>
       </c>
@@ -17179,7 +17228,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="255" spans="1:41">
+    <row r="255" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>964</v>
       </c>
@@ -17211,7 +17260,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="256" spans="1:41">
+    <row r="256" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>967</v>
       </c>
@@ -17243,7 +17292,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="257" spans="1:41">
+    <row r="257" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>970</v>
       </c>
@@ -17275,7 +17324,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="258" spans="1:41">
+    <row r="258" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>973</v>
       </c>
@@ -17307,7 +17356,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="259" spans="1:41">
+    <row r="259" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>976</v>
       </c>
@@ -17339,7 +17388,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="260" spans="1:41">
+    <row r="260" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>979</v>
       </c>
@@ -17371,7 +17420,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="261" spans="1:41">
+    <row r="261" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>982</v>
       </c>
@@ -17403,7 +17452,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="262" spans="1:41">
+    <row r="262" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>985</v>
       </c>
@@ -17435,7 +17484,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="263" spans="1:41">
+    <row r="263" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>988</v>
       </c>
@@ -17467,7 +17516,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="264" spans="1:41">
+    <row r="264" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>991</v>
       </c>
@@ -17499,7 +17548,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="265" spans="1:41">
+    <row r="265" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>994</v>
       </c>
@@ -17531,7 +17580,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="266" spans="1:41">
+    <row r="266" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>997</v>
       </c>
@@ -17563,7 +17612,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="267" spans="1:41">
+    <row r="267" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>1000</v>
       </c>
@@ -17595,7 +17644,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="268" spans="1:41">
+    <row r="268" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>1003</v>
       </c>
@@ -17627,7 +17676,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="269" spans="1:41">
+    <row r="269" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>1006</v>
       </c>
@@ -17659,7 +17708,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="270" spans="1:41">
+    <row r="270" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>1009</v>
       </c>
@@ -17691,7 +17740,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="271" spans="1:41">
+    <row r="271" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>1012</v>
       </c>
@@ -17723,7 +17772,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="272" spans="1:41">
+    <row r="272" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>1015</v>
       </c>
@@ -17755,7 +17804,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="273" spans="1:41">
+    <row r="273" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>1018</v>
       </c>
@@ -17787,7 +17836,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="274" spans="1:41">
+    <row r="274" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>1021</v>
       </c>
@@ -17819,7 +17868,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="275" spans="1:41">
+    <row r="275" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>1024</v>
       </c>
@@ -17851,7 +17900,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="276" spans="1:41">
+    <row r="276" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>1027</v>
       </c>
@@ -17883,7 +17932,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="277" spans="1:41">
+    <row r="277" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>1030</v>
       </c>
@@ -17915,7 +17964,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="278" spans="1:41">
+    <row r="278" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1033</v>
       </c>
@@ -17947,7 +17996,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="279" spans="1:41">
+    <row r="279" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>1036</v>
       </c>
@@ -17979,7 +18028,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="280" spans="1:41">
+    <row r="280" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>1039</v>
       </c>
@@ -18011,7 +18060,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="281" spans="1:41">
+    <row r="281" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>1042</v>
       </c>
@@ -18043,7 +18092,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="282" spans="1:41">
+    <row r="282" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>1045</v>
       </c>
@@ -18075,7 +18124,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="283" spans="1:41">
+    <row r="283" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>1048</v>
       </c>
@@ -18107,7 +18156,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="284" spans="1:41">
+    <row r="284" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>1051</v>
       </c>
@@ -18139,7 +18188,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="285" spans="1:41">
+    <row r="285" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>1054</v>
       </c>
@@ -18171,7 +18220,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="286" spans="1:41">
+    <row r="286" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>1057</v>
       </c>
@@ -18203,7 +18252,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="287" spans="1:41">
+    <row r="287" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>1060</v>
       </c>
@@ -18235,7 +18284,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="288" spans="1:41">
+    <row r="288" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>1063</v>
       </c>
@@ -18267,7 +18316,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="289" spans="1:41">
+    <row r="289" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>1066</v>
       </c>
@@ -18299,7 +18348,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="290" spans="1:41">
+    <row r="290" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>1069</v>
       </c>
@@ -18331,7 +18380,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="291" spans="1:41">
+    <row r="291" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>1072</v>
       </c>
@@ -18363,7 +18412,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="292" spans="1:41">
+    <row r="292" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>1075</v>
       </c>
@@ -18395,7 +18444,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="293" spans="1:41">
+    <row r="293" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>1078</v>
       </c>
@@ -18427,7 +18476,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="294" spans="1:41">
+    <row r="294" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>1081</v>
       </c>
@@ -18456,7 +18505,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="295" spans="1:41">
+    <row r="295" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1085</v>
       </c>
@@ -18488,7 +18537,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="296" spans="1:41">
+    <row r="296" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>1088</v>
       </c>
@@ -18520,7 +18569,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="297" spans="1:41">
+    <row r="297" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>1091</v>
       </c>
@@ -18549,7 +18598,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="298" spans="1:41">
+    <row r="298" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>1095</v>
       </c>
@@ -18578,7 +18627,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="299" spans="1:41">
+    <row r="299" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>1098</v>
       </c>
@@ -18607,7 +18656,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="300" spans="1:41">
+    <row r="300" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>1101</v>
       </c>
@@ -18636,7 +18685,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="301" spans="1:41">
+    <row r="301" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>1104</v>
       </c>
@@ -18665,7 +18714,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="302" spans="1:41">
+    <row r="302" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>1107</v>
       </c>
@@ -18694,7 +18743,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="303" spans="1:41">
+    <row r="303" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>1110</v>
       </c>
@@ -18723,7 +18772,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="304" spans="1:41">
+    <row r="304" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>1113</v>
       </c>
@@ -18752,7 +18801,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="305" spans="1:41">
+    <row r="305" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>1116</v>
       </c>
@@ -18781,7 +18830,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="306" spans="1:41">
+    <row r="306" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>1119</v>
       </c>
@@ -18810,7 +18859,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="307" spans="1:41">
+    <row r="307" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>1122</v>
       </c>
@@ -18839,7 +18888,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="308" spans="1:41">
+    <row r="308" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>1125</v>
       </c>
@@ -18868,7 +18917,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="309" spans="1:41">
+    <row r="309" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>1128</v>
       </c>
@@ -18897,7 +18946,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="310" spans="1:41">
+    <row r="310" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>1131</v>
       </c>
@@ -18926,7 +18975,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="311" spans="1:41">
+    <row r="311" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>1134</v>
       </c>
@@ -18955,7 +19004,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="312" spans="1:41">
+    <row r="312" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1137</v>
       </c>
@@ -18984,7 +19033,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="313" spans="1:41">
+    <row r="313" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>1140</v>
       </c>
@@ -19013,7 +19062,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="314" spans="1:41">
+    <row r="314" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>1143</v>
       </c>
@@ -19042,7 +19091,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="315" spans="1:41">
+    <row r="315" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>1146</v>
       </c>
@@ -19071,7 +19120,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="316" spans="1:41">
+    <row r="316" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>1149</v>
       </c>
@@ -19100,7 +19149,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="317" spans="1:41">
+    <row r="317" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>1152</v>
       </c>
@@ -19129,7 +19178,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="318" spans="1:41">
+    <row r="318" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>1155</v>
       </c>
@@ -19158,7 +19207,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="319" spans="1:41">
+    <row r="319" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>1158</v>
       </c>
@@ -19187,7 +19236,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="320" spans="1:41">
+    <row r="320" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>1161</v>
       </c>
@@ -19216,7 +19265,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="321" spans="1:41">
+    <row r="321" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>1164</v>
       </c>
@@ -19248,7 +19297,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="322" spans="1:41">
+    <row r="322" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>1168</v>
       </c>
@@ -19280,7 +19329,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="323" spans="1:41">
+    <row r="323" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>1171</v>
       </c>
@@ -19312,7 +19361,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="324" spans="1:41">
+    <row r="324" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>1174</v>
       </c>
@@ -19344,7 +19393,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="325" spans="1:41">
+    <row r="325" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>1177</v>
       </c>
@@ -19376,7 +19425,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="326" spans="1:41">
+    <row r="326" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>1180</v>
       </c>
@@ -19408,7 +19457,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="327" spans="1:41">
+    <row r="327" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1183</v>
       </c>
@@ -19440,7 +19489,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="328" spans="1:41">
+    <row r="328" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>1186</v>
       </c>
@@ -19472,7 +19521,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="329" spans="1:41">
+    <row r="329" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>1189</v>
       </c>
@@ -19504,7 +19553,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="330" spans="1:41">
+    <row r="330" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>1192</v>
       </c>
@@ -19536,7 +19585,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="331" spans="1:41">
+    <row r="331" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>1195</v>
       </c>
@@ -19568,7 +19617,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="332" spans="1:41">
+    <row r="332" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>1198</v>
       </c>
@@ -19600,7 +19649,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="333" spans="1:41">
+    <row r="333" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>1201</v>
       </c>
@@ -19632,7 +19681,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="334" spans="1:41">
+    <row r="334" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>1204</v>
       </c>
@@ -19664,7 +19713,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="335" spans="1:41">
+    <row r="335" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>1207</v>
       </c>
@@ -19696,7 +19745,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="336" spans="1:41">
+    <row r="336" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>1210</v>
       </c>
@@ -19728,7 +19777,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="337" spans="1:41">
+    <row r="337" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>1213</v>
       </c>
@@ -19760,7 +19809,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="338" spans="1:41">
+    <row r="338" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>1216</v>
       </c>
@@ -19792,7 +19841,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="339" spans="1:41">
+    <row r="339" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>1219</v>
       </c>
@@ -19824,7 +19873,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="340" spans="1:41">
+    <row r="340" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>1222</v>
       </c>
@@ -19856,7 +19905,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="341" spans="1:41">
+    <row r="341" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>1225</v>
       </c>
@@ -19888,7 +19937,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="342" spans="1:41">
+    <row r="342" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>1228</v>
       </c>
@@ -19920,7 +19969,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="343" spans="1:41">
+    <row r="343" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>1231</v>
       </c>
@@ -19952,7 +20001,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="344" spans="1:41">
+    <row r="344" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>1234</v>
       </c>
@@ -19984,7 +20033,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="345" spans="1:41">
+    <row r="345" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>1237</v>
       </c>
@@ -20013,7 +20062,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="346" spans="1:41">
+    <row r="346" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>1241</v>
       </c>
@@ -20042,7 +20091,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="347" spans="1:41">
+    <row r="347" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1244</v>
       </c>
@@ -20071,7 +20120,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="348" spans="1:41">
+    <row r="348" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>1247</v>
       </c>
@@ -20100,7 +20149,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="349" spans="1:41">
+    <row r="349" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>1250</v>
       </c>
@@ -20129,7 +20178,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="350" spans="1:41">
+    <row r="350" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>1253</v>
       </c>
@@ -20158,7 +20207,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="351" spans="1:41">
+    <row r="351" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>1256</v>
       </c>
@@ -20187,7 +20236,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="352" spans="1:41">
+    <row r="352" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>1259</v>
       </c>
@@ -20216,7 +20265,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="353" spans="1:41">
+    <row r="353" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>1262</v>
       </c>
@@ -20245,7 +20294,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="354" spans="1:41">
+    <row r="354" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>1265</v>
       </c>
@@ -20274,7 +20323,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="355" spans="1:41">
+    <row r="355" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>1268</v>
       </c>
@@ -20303,7 +20352,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="356" spans="1:41">
+    <row r="356" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>1271</v>
       </c>
@@ -20332,7 +20381,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="357" spans="1:41">
+    <row r="357" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>1274</v>
       </c>
@@ -20361,7 +20410,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="358" spans="1:41">
+    <row r="358" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>1277</v>
       </c>
@@ -20390,7 +20439,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="359" spans="1:41">
+    <row r="359" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>1280</v>
       </c>
@@ -20419,7 +20468,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="360" spans="1:41">
+    <row r="360" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>1283</v>
       </c>
@@ -20448,7 +20497,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="361" spans="1:41">
+    <row r="361" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>1286</v>
       </c>
@@ -20477,7 +20526,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="362" spans="1:41">
+    <row r="362" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>1289</v>
       </c>
@@ -20506,7 +20555,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="363" spans="1:41">
+    <row r="363" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>1292</v>
       </c>
@@ -20535,7 +20584,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="364" spans="1:41">
+    <row r="364" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>1295</v>
       </c>
@@ -20564,7 +20613,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="365" spans="1:41">
+    <row r="365" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1298</v>
       </c>
@@ -20593,7 +20642,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="366" spans="1:41">
+    <row r="366" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>1301</v>
       </c>
@@ -20622,7 +20671,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="367" spans="1:41">
+    <row r="367" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>1304</v>
       </c>
@@ -20651,7 +20700,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="368" spans="1:41">
+    <row r="368" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>1307</v>
       </c>
@@ -20680,7 +20729,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="369" spans="1:41">
+    <row r="369" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>1310</v>
       </c>
@@ -20712,7 +20761,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="370" spans="1:41">
+    <row r="370" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>1314</v>
       </c>
@@ -20744,7 +20793,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="371" spans="1:41">
+    <row r="371" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>1317</v>
       </c>
@@ -20776,7 +20825,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="372" spans="1:41">
+    <row r="372" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>1320</v>
       </c>
@@ -20808,7 +20857,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="373" spans="1:41">
+    <row r="373" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>1323</v>
       </c>
@@ -20840,7 +20889,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="374" spans="1:41">
+    <row r="374" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>1326</v>
       </c>
@@ -20872,7 +20921,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="375" spans="1:41">
+    <row r="375" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>1329</v>
       </c>
@@ -20904,7 +20953,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="376" spans="1:41">
+    <row r="376" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>1332</v>
       </c>
@@ -20936,7 +20985,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="377" spans="1:41">
+    <row r="377" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>1335</v>
       </c>
@@ -20968,7 +21017,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="378" spans="1:41">
+    <row r="378" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>1338</v>
       </c>
@@ -21000,7 +21049,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="379" spans="1:41">
+    <row r="379" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>1341</v>
       </c>
@@ -21032,7 +21081,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="380" spans="1:41">
+    <row r="380" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>1344</v>
       </c>
@@ -21064,7 +21113,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="381" spans="1:41">
+    <row r="381" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>1347</v>
       </c>
@@ -21096,7 +21145,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="382" spans="1:41">
+    <row r="382" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>1350</v>
       </c>
@@ -21128,7 +21177,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="383" spans="1:41">
+    <row r="383" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1353</v>
       </c>
@@ -21160,7 +21209,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="384" spans="1:41">
+    <row r="384" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>1356</v>
       </c>
@@ -21192,7 +21241,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="385" spans="1:41">
+    <row r="385" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>1359</v>
       </c>
@@ -21224,7 +21273,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="386" spans="1:41">
+    <row r="386" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>1362</v>
       </c>
@@ -21256,7 +21305,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="387" spans="1:41">
+    <row r="387" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>1365</v>
       </c>
@@ -21288,7 +21337,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="388" spans="1:41">
+    <row r="388" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>1368</v>
       </c>
@@ -21320,7 +21369,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="389" spans="1:41">
+    <row r="389" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>1371</v>
       </c>
@@ -21352,7 +21401,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="390" spans="1:41">
+    <row r="390" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>1374</v>
       </c>
@@ -21384,7 +21433,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="391" spans="1:41">
+    <row r="391" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>1377</v>
       </c>
@@ -21416,7 +21465,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="392" spans="1:41">
+    <row r="392" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>1380</v>
       </c>
@@ -21454,93 +21503,91 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BY8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="46.7109375" customWidth="1"/>
-    <col min="11" max="11" width="103.7109375" customWidth="1"/>
-    <col min="12" max="12" width="58.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="42.7109375" customWidth="1"/>
-    <col min="15" max="15" width="58.7109375" customWidth="1"/>
-    <col min="16" max="16" width="141.7109375" customWidth="1"/>
-    <col min="17" max="17" width="62.7109375" customWidth="1"/>
-    <col min="18" max="18" width="58.7109375" customWidth="1"/>
-    <col min="19" max="19" width="141.7109375" customWidth="1"/>
-    <col min="20" max="20" width="65.7109375" customWidth="1"/>
-    <col min="21" max="21" width="221.7109375" customWidth="1"/>
-    <col min="22" max="22" width="106.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="77.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="82.7109375" customWidth="1"/>
-    <col min="30" max="30" width="58.7109375" customWidth="1"/>
-    <col min="31" max="31" width="141.7109375" customWidth="1"/>
-    <col min="32" max="32" width="134.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="52.7109375" customWidth="1"/>
-    <col min="35" max="35" width="143.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="147.7109375" customWidth="1"/>
-    <col min="38" max="38" width="155.7109375" customWidth="1"/>
-    <col min="39" max="39" width="172.7109375" customWidth="1"/>
-    <col min="40" max="40" width="129.7109375" customWidth="1"/>
-    <col min="41" max="41" width="137.7109375" customWidth="1"/>
-    <col min="42" max="42" width="74.7109375" customWidth="1"/>
-    <col min="43" max="43" width="89.7109375" customWidth="1"/>
-    <col min="44" max="44" width="174.7109375" customWidth="1"/>
-    <col min="45" max="45" width="154.7109375" customWidth="1"/>
-    <col min="46" max="46" width="69.7109375" customWidth="1"/>
-    <col min="47" max="47" width="58.7109375" customWidth="1"/>
-    <col min="48" max="48" width="141.7109375" customWidth="1"/>
-    <col min="49" max="49" width="109.7109375" customWidth="1"/>
-    <col min="50" max="50" width="69.7109375" customWidth="1"/>
-    <col min="51" max="51" width="58.7109375" customWidth="1"/>
-    <col min="52" max="52" width="141.7109375" customWidth="1"/>
-    <col min="53" max="53" width="106.7109375" customWidth="1"/>
-    <col min="54" max="54" width="69.7109375" customWidth="1"/>
-    <col min="55" max="55" width="58.7109375" customWidth="1"/>
-    <col min="56" max="56" width="141.7109375" customWidth="1"/>
-    <col min="57" max="57" width="108.7109375" customWidth="1"/>
-    <col min="58" max="58" width="69.7109375" customWidth="1"/>
-    <col min="59" max="59" width="58.7109375" customWidth="1"/>
-    <col min="60" max="60" width="141.7109375" customWidth="1"/>
-    <col min="61" max="61" width="117.7109375" customWidth="1"/>
-    <col min="62" max="62" width="32.7109375" customWidth="1"/>
-    <col min="63" max="63" width="67.7109375" customWidth="1"/>
-    <col min="64" max="64" width="41.7109375" customWidth="1"/>
-    <col min="65" max="65" width="84.7109375" customWidth="1"/>
-    <col min="66" max="66" width="104.7109375" customWidth="1"/>
-    <col min="67" max="67" width="104.7109375" customWidth="1"/>
-    <col min="68" max="68" width="104.7109375" customWidth="1"/>
-    <col min="69" max="69" width="88.7109375" customWidth="1"/>
-    <col min="70" max="70" width="69.7109375" customWidth="1"/>
-    <col min="71" max="71" width="58.7109375" customWidth="1"/>
-    <col min="72" max="72" width="141.7109375" customWidth="1"/>
-    <col min="73" max="73" width="67.7109375" customWidth="1"/>
-    <col min="74" max="74" width="58.7109375" customWidth="1"/>
-    <col min="75" max="75" width="141.7109375" customWidth="1"/>
-    <col min="76" max="76" width="79.7109375" customWidth="1"/>
-    <col min="77" max="77" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="46.6640625" customWidth="1"/>
+    <col min="11" max="11" width="103.6640625" customWidth="1"/>
+    <col min="12" max="12" width="58.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="42.6640625" customWidth="1"/>
+    <col min="15" max="15" width="58.6640625" customWidth="1"/>
+    <col min="16" max="16" width="141.6640625" customWidth="1"/>
+    <col min="17" max="17" width="62.6640625" customWidth="1"/>
+    <col min="18" max="18" width="58.6640625" customWidth="1"/>
+    <col min="19" max="19" width="141.6640625" customWidth="1"/>
+    <col min="20" max="20" width="65.6640625" customWidth="1"/>
+    <col min="21" max="21" width="221.6640625" customWidth="1"/>
+    <col min="22" max="22" width="106.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="77.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="82.6640625" customWidth="1"/>
+    <col min="30" max="30" width="58.6640625" customWidth="1"/>
+    <col min="31" max="31" width="141.6640625" customWidth="1"/>
+    <col min="32" max="32" width="134.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="52.6640625" customWidth="1"/>
+    <col min="35" max="35" width="143.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="147.6640625" customWidth="1"/>
+    <col min="38" max="38" width="155.6640625" customWidth="1"/>
+    <col min="39" max="39" width="172.6640625" customWidth="1"/>
+    <col min="40" max="40" width="129.6640625" customWidth="1"/>
+    <col min="41" max="41" width="137.6640625" customWidth="1"/>
+    <col min="42" max="42" width="74.6640625" customWidth="1"/>
+    <col min="43" max="43" width="89.6640625" customWidth="1"/>
+    <col min="44" max="44" width="174.6640625" customWidth="1"/>
+    <col min="45" max="45" width="154.6640625" customWidth="1"/>
+    <col min="46" max="46" width="69.6640625" customWidth="1"/>
+    <col min="47" max="47" width="58.6640625" customWidth="1"/>
+    <col min="48" max="48" width="141.6640625" customWidth="1"/>
+    <col min="49" max="49" width="109.6640625" customWidth="1"/>
+    <col min="50" max="50" width="69.6640625" customWidth="1"/>
+    <col min="51" max="51" width="58.6640625" customWidth="1"/>
+    <col min="52" max="52" width="141.6640625" customWidth="1"/>
+    <col min="53" max="53" width="106.6640625" customWidth="1"/>
+    <col min="54" max="54" width="69.6640625" customWidth="1"/>
+    <col min="55" max="55" width="58.6640625" customWidth="1"/>
+    <col min="56" max="56" width="141.6640625" customWidth="1"/>
+    <col min="57" max="57" width="108.6640625" customWidth="1"/>
+    <col min="58" max="58" width="69.6640625" customWidth="1"/>
+    <col min="59" max="59" width="58.6640625" customWidth="1"/>
+    <col min="60" max="60" width="141.6640625" customWidth="1"/>
+    <col min="61" max="61" width="117.6640625" customWidth="1"/>
+    <col min="62" max="62" width="32.6640625" customWidth="1"/>
+    <col min="63" max="63" width="67.6640625" customWidth="1"/>
+    <col min="64" max="64" width="41.6640625" customWidth="1"/>
+    <col min="65" max="65" width="84.6640625" customWidth="1"/>
+    <col min="66" max="68" width="104.6640625" customWidth="1"/>
+    <col min="69" max="69" width="88.6640625" customWidth="1"/>
+    <col min="70" max="70" width="69.6640625" customWidth="1"/>
+    <col min="71" max="71" width="58.6640625" customWidth="1"/>
+    <col min="72" max="72" width="141.6640625" customWidth="1"/>
+    <col min="73" max="73" width="67.6640625" customWidth="1"/>
+    <col min="74" max="74" width="58.6640625" customWidth="1"/>
+    <col min="75" max="75" width="141.6640625" customWidth="1"/>
+    <col min="76" max="76" width="79.6640625" customWidth="1"/>
+    <col min="77" max="77" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1383</v>
       </c>
@@ -21773,7 +21820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -22006,7 +22053,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -22221,7 +22268,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1487</v>
       </c>
@@ -22454,12 +22501,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1548</v>
       </c>
@@ -22473,7 +22520,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1551</v>
       </c>
@@ -22487,7 +22534,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1552</v>
       </c>
@@ -22507,67 +22554,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AY6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="705.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="71.7109375" customWidth="1"/>
-    <col min="8" max="8" width="57.7109375" customWidth="1"/>
-    <col min="9" max="9" width="57.7109375" customWidth="1"/>
-    <col min="10" max="10" width="80.7109375" customWidth="1"/>
-    <col min="11" max="11" width="84.7109375" customWidth="1"/>
-    <col min="12" max="12" width="66.7109375" customWidth="1"/>
-    <col min="13" max="13" width="141.7109375" customWidth="1"/>
-    <col min="14" max="14" width="102.7109375" customWidth="1"/>
-    <col min="15" max="15" width="67.7109375" customWidth="1"/>
-    <col min="16" max="16" width="66.7109375" customWidth="1"/>
-    <col min="17" max="17" width="141.7109375" customWidth="1"/>
-    <col min="18" max="18" width="90.7109375" customWidth="1"/>
-    <col min="19" max="19" width="69.7109375" customWidth="1"/>
-    <col min="20" max="20" width="67.7109375" customWidth="1"/>
-    <col min="21" max="21" width="65.7109375" customWidth="1"/>
-    <col min="22" max="22" width="111.7109375" customWidth="1"/>
-    <col min="23" max="23" width="91.7109375" customWidth="1"/>
-    <col min="24" max="24" width="90.7109375" customWidth="1"/>
-    <col min="25" max="25" width="72.7109375" customWidth="1"/>
-    <col min="26" max="26" width="70.7109375" customWidth="1"/>
-    <col min="27" max="27" width="68.7109375" customWidth="1"/>
-    <col min="28" max="28" width="111.7109375" customWidth="1"/>
-    <col min="29" max="29" width="91.7109375" customWidth="1"/>
-    <col min="30" max="30" width="161.7109375" customWidth="1"/>
-    <col min="31" max="31" width="52.7109375" customWidth="1"/>
-    <col min="32" max="32" width="320.7109375" customWidth="1"/>
-    <col min="33" max="33" width="90.7109375" customWidth="1"/>
-    <col min="34" max="34" width="57.7109375" customWidth="1"/>
-    <col min="35" max="35" width="55.7109375" customWidth="1"/>
-    <col min="36" max="36" width="53.7109375" customWidth="1"/>
-    <col min="37" max="37" width="111.7109375" customWidth="1"/>
-    <col min="38" max="38" width="91.7109375" customWidth="1"/>
-    <col min="39" max="39" width="47.7109375" customWidth="1"/>
-    <col min="40" max="40" width="71.7109375" customWidth="1"/>
-    <col min="41" max="41" width="56.7109375" customWidth="1"/>
-    <col min="42" max="42" width="56.7109375" customWidth="1"/>
-    <col min="43" max="43" width="80.7109375" customWidth="1"/>
-    <col min="44" max="44" width="67.7109375" customWidth="1"/>
-    <col min="45" max="45" width="70.7109375" customWidth="1"/>
-    <col min="46" max="46" width="141.7109375" customWidth="1"/>
-    <col min="47" max="47" width="68.7109375" customWidth="1"/>
-    <col min="48" max="48" width="72.7109375" customWidth="1"/>
-    <col min="49" max="49" width="141.7109375" customWidth="1"/>
-    <col min="50" max="50" width="56.7109375" customWidth="1"/>
-    <col min="51" max="51" width="74.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="705.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71.6640625" customWidth="1"/>
+    <col min="8" max="9" width="57.6640625" customWidth="1"/>
+    <col min="10" max="10" width="80.6640625" customWidth="1"/>
+    <col min="11" max="11" width="84.6640625" customWidth="1"/>
+    <col min="12" max="12" width="66.6640625" customWidth="1"/>
+    <col min="13" max="13" width="141.6640625" customWidth="1"/>
+    <col min="14" max="14" width="102.6640625" customWidth="1"/>
+    <col min="15" max="15" width="67.6640625" customWidth="1"/>
+    <col min="16" max="16" width="66.6640625" customWidth="1"/>
+    <col min="17" max="17" width="141.6640625" customWidth="1"/>
+    <col min="18" max="18" width="90.6640625" customWidth="1"/>
+    <col min="19" max="19" width="69.6640625" customWidth="1"/>
+    <col min="20" max="20" width="67.6640625" customWidth="1"/>
+    <col min="21" max="21" width="65.6640625" customWidth="1"/>
+    <col min="22" max="22" width="111.6640625" customWidth="1"/>
+    <col min="23" max="23" width="91.6640625" customWidth="1"/>
+    <col min="24" max="24" width="90.6640625" customWidth="1"/>
+    <col min="25" max="25" width="72.6640625" customWidth="1"/>
+    <col min="26" max="26" width="70.6640625" customWidth="1"/>
+    <col min="27" max="27" width="68.6640625" customWidth="1"/>
+    <col min="28" max="28" width="111.6640625" customWidth="1"/>
+    <col min="29" max="29" width="91.6640625" customWidth="1"/>
+    <col min="30" max="30" width="161.6640625" customWidth="1"/>
+    <col min="31" max="31" width="52.6640625" customWidth="1"/>
+    <col min="32" max="32" width="320.6640625" customWidth="1"/>
+    <col min="33" max="33" width="90.6640625" customWidth="1"/>
+    <col min="34" max="34" width="57.6640625" customWidth="1"/>
+    <col min="35" max="35" width="55.6640625" customWidth="1"/>
+    <col min="36" max="36" width="53.6640625" customWidth="1"/>
+    <col min="37" max="37" width="111.6640625" customWidth="1"/>
+    <col min="38" max="38" width="91.6640625" customWidth="1"/>
+    <col min="39" max="39" width="47.6640625" customWidth="1"/>
+    <col min="40" max="40" width="71.6640625" customWidth="1"/>
+    <col min="41" max="42" width="56.6640625" customWidth="1"/>
+    <col min="43" max="43" width="80.6640625" customWidth="1"/>
+    <col min="44" max="44" width="67.6640625" customWidth="1"/>
+    <col min="45" max="45" width="70.6640625" customWidth="1"/>
+    <col min="46" max="46" width="141.6640625" customWidth="1"/>
+    <col min="47" max="47" width="68.6640625" customWidth="1"/>
+    <col min="48" max="48" width="72.6640625" customWidth="1"/>
+    <col min="49" max="49" width="141.6640625" customWidth="1"/>
+    <col min="50" max="50" width="56.6640625" customWidth="1"/>
+    <col min="51" max="51" width="74.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1553</v>
       </c>
@@ -22722,7 +22767,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="2" spans="1:51">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -22877,7 +22922,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="3" spans="1:51">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -23026,7 +23071,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="4" spans="1:51">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1654</v>
       </c>
@@ -23181,12 +23226,12 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="5" spans="1:51">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1705</v>
       </c>
@@ -23203,25 +23248,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="162.7109375" customWidth="1"/>
-    <col min="2" max="2" width="153.7109375" customWidth="1"/>
-    <col min="3" max="3" width="589.7109375" customWidth="1"/>
-    <col min="4" max="4" width="677.7109375" customWidth="1"/>
-    <col min="5" max="5" width="171.7109375" customWidth="1"/>
-    <col min="6" max="6" width="99.7109375" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="174.7109375" customWidth="1"/>
-    <col min="9" max="9" width="75.7109375" customWidth="1"/>
+    <col min="1" max="1" width="162.6640625" customWidth="1"/>
+    <col min="2" max="2" width="153.6640625" customWidth="1"/>
+    <col min="3" max="3" width="589.6640625" customWidth="1"/>
+    <col min="4" max="4" width="677.6640625" customWidth="1"/>
+    <col min="5" max="5" width="171.6640625" customWidth="1"/>
+    <col min="6" max="7" width="99.6640625" customWidth="1"/>
+    <col min="8" max="8" width="174.6640625" customWidth="1"/>
+    <col min="9" max="9" width="75.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1708</v>
       </c>
@@ -23250,7 +23294,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1717</v>
       </c>
@@ -23279,7 +23323,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1726</v>
       </c>
@@ -23308,7 +23352,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1735</v>
       </c>
@@ -23337,12 +23381,12 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1744</v>
       </c>
@@ -23368,28 +23412,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="75.7109375" customWidth="1"/>
-    <col min="6" max="6" width="127.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="70.7109375" customWidth="1"/>
-    <col min="9" max="9" width="64.7109375" customWidth="1"/>
-    <col min="10" max="10" width="58.7109375" customWidth="1"/>
-    <col min="11" max="11" width="141.7109375" customWidth="1"/>
-    <col min="12" max="12" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="103.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="75.6640625" customWidth="1"/>
+    <col min="6" max="6" width="127.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="70.6640625" customWidth="1"/>
+    <col min="9" max="9" width="64.6640625" customWidth="1"/>
+    <col min="10" max="10" width="58.6640625" customWidth="1"/>
+    <col min="11" max="11" width="141.6640625" customWidth="1"/>
+    <col min="12" max="12" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1750</v>
       </c>
@@ -23427,7 +23471,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1762</v>
       </c>
@@ -23465,7 +23509,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1772</v>
       </c>
@@ -23503,7 +23547,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1783</v>
       </c>
@@ -23541,12 +23585,12 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1795</v>
       </c>
@@ -23572,21 +23616,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="55.7109375" customWidth="1"/>
-    <col min="3" max="3" width="68.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" customWidth="1"/>
+    <col min="3" max="3" width="68.6640625" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1801</v>
       </c>
@@ -23603,7 +23647,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1805</v>
       </c>
@@ -23620,7 +23664,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1810</v>
       </c>
@@ -23637,7 +23681,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1815</v>
       </c>
@@ -23654,12 +23698,12 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
         <v>1820</v>
       </c>
@@ -23670,46 +23714,44 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD392"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="85.7109375" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.7109375" customWidth="1"/>
-    <col min="4" max="4" width="58.7109375" customWidth="1"/>
-    <col min="5" max="5" width="141.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
-    <col min="7" max="7" width="117.7109375" customWidth="1"/>
-    <col min="8" max="8" width="44.7109375" customWidth="1"/>
-    <col min="9" max="9" width="61.7109375" customWidth="1"/>
-    <col min="10" max="10" width="168.7109375" customWidth="1"/>
-    <col min="11" max="11" width="156.7109375" customWidth="1"/>
-    <col min="12" max="12" width="73.7109375" customWidth="1"/>
-    <col min="13" max="13" width="80.7109375" customWidth="1"/>
-    <col min="14" max="14" width="71.7109375" customWidth="1"/>
-    <col min="15" max="15" width="32.7109375" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" customWidth="1"/>
-    <col min="17" max="17" width="41.7109375" customWidth="1"/>
-    <col min="18" max="18" width="84.7109375" customWidth="1"/>
-    <col min="19" max="19" width="104.7109375" customWidth="1"/>
-    <col min="20" max="20" width="104.7109375" customWidth="1"/>
-    <col min="21" max="21" width="104.7109375" customWidth="1"/>
-    <col min="22" max="22" width="88.7109375" customWidth="1"/>
-    <col min="23" max="23" width="69.7109375" customWidth="1"/>
-    <col min="24" max="24" width="58.7109375" customWidth="1"/>
-    <col min="25" max="25" width="141.7109375" customWidth="1"/>
-    <col min="26" max="26" width="67.7109375" customWidth="1"/>
-    <col min="27" max="27" width="58.7109375" customWidth="1"/>
-    <col min="28" max="28" width="141.7109375" customWidth="1"/>
-    <col min="29" max="29" width="79.7109375" customWidth="1"/>
-    <col min="30" max="30" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="85.6640625" customWidth="1"/>
+    <col min="2" max="2" width="94.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="58.6640625" customWidth="1"/>
+    <col min="5" max="5" width="141.6640625" customWidth="1"/>
+    <col min="6" max="6" width="47.6640625" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
+    <col min="8" max="8" width="44.6640625" customWidth="1"/>
+    <col min="9" max="9" width="61.6640625" customWidth="1"/>
+    <col min="10" max="10" width="168.6640625" customWidth="1"/>
+    <col min="11" max="11" width="156.6640625" customWidth="1"/>
+    <col min="12" max="12" width="73.6640625" customWidth="1"/>
+    <col min="13" max="13" width="80.6640625" customWidth="1"/>
+    <col min="14" max="14" width="71.6640625" customWidth="1"/>
+    <col min="15" max="15" width="32.6640625" customWidth="1"/>
+    <col min="16" max="16" width="67.6640625" customWidth="1"/>
+    <col min="17" max="17" width="41.6640625" customWidth="1"/>
+    <col min="18" max="18" width="84.6640625" customWidth="1"/>
+    <col min="19" max="21" width="104.6640625" customWidth="1"/>
+    <col min="22" max="22" width="88.6640625" customWidth="1"/>
+    <col min="23" max="23" width="69.6640625" customWidth="1"/>
+    <col min="24" max="24" width="58.6640625" customWidth="1"/>
+    <col min="25" max="25" width="141.6640625" customWidth="1"/>
+    <col min="26" max="26" width="67.6640625" customWidth="1"/>
+    <col min="27" max="27" width="58.6640625" customWidth="1"/>
+    <col min="28" max="28" width="141.6640625" customWidth="1"/>
+    <col min="29" max="29" width="79.6640625" customWidth="1"/>
+    <col min="30" max="30" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1821</v>
       </c>
@@ -23801,7 +23843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1833</v>
       </c>
@@ -23893,7 +23935,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1842</v>
       </c>
@@ -23973,7 +24015,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1852</v>
       </c>
@@ -24065,12 +24107,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1864</v>
       </c>
@@ -24093,7 +24135,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>1869</v>
       </c>
@@ -24116,7 +24158,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1871</v>
       </c>
@@ -24139,7 +24181,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1873</v>
       </c>
@@ -24162,7 +24204,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1875</v>
       </c>
@@ -24185,7 +24227,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1877</v>
       </c>
@@ -24208,7 +24250,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1879</v>
       </c>
@@ -24231,7 +24273,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>1881</v>
       </c>
@@ -24254,7 +24296,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1883</v>
       </c>
@@ -24277,7 +24319,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1885</v>
       </c>
@@ -24300,7 +24342,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1887</v>
       </c>
@@ -24323,7 +24365,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>1889</v>
       </c>
@@ -24346,7 +24388,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1891</v>
       </c>
@@ -24369,7 +24411,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>1893</v>
       </c>
@@ -24392,7 +24434,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1895</v>
       </c>
@@ -24415,7 +24457,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1897</v>
       </c>
@@ -24438,7 +24480,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>1899</v>
       </c>
@@ -24461,7 +24503,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>1901</v>
       </c>
@@ -24484,7 +24526,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1903</v>
       </c>
@@ -24507,7 +24549,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>1905</v>
       </c>
@@ -24530,7 +24572,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1907</v>
       </c>
@@ -24553,7 +24595,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1909</v>
       </c>
@@ -24576,7 +24618,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1911</v>
       </c>
@@ -24599,7 +24641,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>1913</v>
       </c>
@@ -24622,7 +24664,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1915</v>
       </c>
@@ -24645,7 +24687,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1917</v>
       </c>
@@ -24668,7 +24710,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1919</v>
       </c>
@@ -24691,7 +24733,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>1921</v>
       </c>
@@ -24714,7 +24756,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1923</v>
       </c>
@@ -24737,7 +24779,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1925</v>
       </c>
@@ -24760,7 +24802,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1927</v>
       </c>
@@ -24783,7 +24825,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>1929</v>
       </c>
@@ -24806,7 +24848,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>1931</v>
       </c>
@@ -24829,7 +24871,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1933</v>
       </c>
@@ -24852,7 +24894,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>1935</v>
       </c>
@@ -24875,7 +24917,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>1937</v>
       </c>
@@ -24898,7 +24940,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1939</v>
       </c>
@@ -24921,7 +24963,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>1941</v>
       </c>
@@ -24944,7 +24986,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>1943</v>
       </c>
@@ -24967,7 +25009,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>1945</v>
       </c>
@@ -24990,7 +25032,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>1947</v>
       </c>
@@ -25013,7 +25055,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>1949</v>
       </c>
@@ -25036,7 +25078,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>1951</v>
       </c>
@@ -25059,7 +25101,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>1953</v>
       </c>
@@ -25082,7 +25124,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>1955</v>
       </c>
@@ -25105,7 +25147,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1957</v>
       </c>
@@ -25128,7 +25170,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1959</v>
       </c>
@@ -25151,7 +25193,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>1961</v>
       </c>
@@ -25174,7 +25216,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>1963</v>
       </c>
@@ -25197,7 +25239,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>1965</v>
       </c>
@@ -25220,7 +25262,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>1967</v>
       </c>
@@ -25243,7 +25285,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1969</v>
       </c>
@@ -25266,7 +25308,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1971</v>
       </c>
@@ -25289,7 +25331,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="59" spans="1:14">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1973</v>
       </c>
@@ -25312,7 +25354,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="60" spans="1:14">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1975</v>
       </c>
@@ -25335,7 +25377,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1977</v>
       </c>
@@ -25358,7 +25400,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>1979</v>
       </c>
@@ -25381,7 +25423,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1981</v>
       </c>
@@ -25404,7 +25446,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>1983</v>
       </c>
@@ -25427,7 +25469,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>1985</v>
       </c>
@@ -25450,7 +25492,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>1987</v>
       </c>
@@ -25473,7 +25515,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>1989</v>
       </c>
@@ -25496,7 +25538,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1991</v>
       </c>
@@ -25519,7 +25561,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>1993</v>
       </c>
@@ -25542,7 +25584,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>1995</v>
       </c>
@@ -25565,7 +25607,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>1997</v>
       </c>
@@ -25588,7 +25630,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>1999</v>
       </c>
@@ -25611,7 +25653,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>2001</v>
       </c>
@@ -25634,7 +25676,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>2003</v>
       </c>
@@ -25657,7 +25699,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>2005</v>
       </c>
@@ -25680,7 +25722,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>2007</v>
       </c>
@@ -25703,7 +25745,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>2009</v>
       </c>
@@ -25726,7 +25768,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>2011</v>
       </c>
@@ -25749,7 +25791,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2013</v>
       </c>
@@ -25772,7 +25814,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>2015</v>
       </c>
@@ -25795,7 +25837,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2017</v>
       </c>
@@ -25818,7 +25860,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>2019</v>
       </c>
@@ -25841,7 +25883,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>2021</v>
       </c>
@@ -25864,7 +25906,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>2023</v>
       </c>
@@ -25887,7 +25929,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2025</v>
       </c>
@@ -25910,7 +25952,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>2027</v>
       </c>
@@ -25933,7 +25975,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>2029</v>
       </c>
@@ -25956,7 +25998,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="88" spans="1:14">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2031</v>
       </c>
@@ -25979,7 +26021,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>2033</v>
       </c>
@@ -26002,7 +26044,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>2035</v>
       </c>
@@ -26025,7 +26067,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>2037</v>
       </c>
@@ -26048,7 +26090,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>2039</v>
       </c>
@@ -26071,7 +26113,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>2041</v>
       </c>
@@ -26094,7 +26136,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>2043</v>
       </c>
@@ -26117,7 +26159,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>2045</v>
       </c>
@@ -26140,7 +26182,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>2047</v>
       </c>
@@ -26163,7 +26205,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>2049</v>
       </c>
@@ -26186,7 +26228,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="98" spans="1:14">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>2051</v>
       </c>
@@ -26209,7 +26251,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="99" spans="1:14">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>2053</v>
       </c>
@@ -26232,7 +26274,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>2055</v>
       </c>
@@ -26255,7 +26297,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>2057</v>
       </c>
@@ -26278,7 +26320,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>2059</v>
       </c>
@@ -26301,7 +26343,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>2061</v>
       </c>
@@ -26324,7 +26366,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>2063</v>
       </c>
@@ -26347,7 +26389,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="105" spans="1:14">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>2065</v>
       </c>
@@ -26370,7 +26412,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="106" spans="1:14">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>2067</v>
       </c>
@@ -26393,7 +26435,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="107" spans="1:14">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>2069</v>
       </c>
@@ -26416,7 +26458,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>2071</v>
       </c>
@@ -26439,7 +26481,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="109" spans="1:14">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2073</v>
       </c>
@@ -26462,7 +26504,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>2075</v>
       </c>
@@ -26485,7 +26527,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>2077</v>
       </c>
@@ -26508,7 +26550,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>2079</v>
       </c>
@@ -26531,7 +26573,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>2081</v>
       </c>
@@ -26554,7 +26596,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>2083</v>
       </c>
@@ -26577,7 +26619,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>2085</v>
       </c>
@@ -26600,7 +26642,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>2087</v>
       </c>
@@ -26623,7 +26665,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="117" spans="1:14">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>2089</v>
       </c>
@@ -26646,7 +26688,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>2091</v>
       </c>
@@ -26669,7 +26711,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>2093</v>
       </c>
@@ -26692,7 +26734,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>2095</v>
       </c>
@@ -26715,7 +26757,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>2097</v>
       </c>
@@ -26738,7 +26780,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>2099</v>
       </c>
@@ -26761,7 +26803,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>2101</v>
       </c>
@@ -26784,7 +26826,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>2103</v>
       </c>
@@ -26807,7 +26849,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>2105</v>
       </c>
@@ -26830,7 +26872,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>2107</v>
       </c>
@@ -26853,7 +26895,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>2109</v>
       </c>
@@ -26876,7 +26918,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>2111</v>
       </c>
@@ -26899,7 +26941,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>2113</v>
       </c>
@@ -26922,7 +26964,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>2115</v>
       </c>
@@ -26945,7 +26987,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>2117</v>
       </c>
@@ -26968,7 +27010,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>2119</v>
       </c>
@@ -26991,7 +27033,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>2121</v>
       </c>
@@ -27014,7 +27056,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>2123</v>
       </c>
@@ -27037,7 +27079,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="135" spans="1:14">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>2125</v>
       </c>
@@ -27060,7 +27102,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>2127</v>
       </c>
@@ -27083,7 +27125,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>2129</v>
       </c>
@@ -27106,7 +27148,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>2131</v>
       </c>
@@ -27129,7 +27171,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>2133</v>
       </c>
@@ -27152,7 +27194,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2135</v>
       </c>
@@ -27175,7 +27217,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>2137</v>
       </c>
@@ -27198,7 +27240,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>2139</v>
       </c>
@@ -27221,7 +27263,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>2141</v>
       </c>
@@ -27244,7 +27286,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>2143</v>
       </c>
@@ -27267,7 +27309,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>2145</v>
       </c>
@@ -27290,7 +27332,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>2147</v>
       </c>
@@ -27313,7 +27355,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>2149</v>
       </c>
@@ -27336,7 +27378,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>2151</v>
       </c>
@@ -27359,7 +27401,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>2153</v>
       </c>
@@ -27382,7 +27424,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>2155</v>
       </c>
@@ -27405,7 +27447,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>2157</v>
       </c>
@@ -27428,7 +27470,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>2159</v>
       </c>
@@ -27451,7 +27493,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>2161</v>
       </c>
@@ -27474,7 +27516,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>2163</v>
       </c>
@@ -27497,7 +27539,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>2165</v>
       </c>
@@ -27520,7 +27562,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>2167</v>
       </c>
@@ -27543,7 +27585,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>2169</v>
       </c>
@@ -27566,7 +27608,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>2171</v>
       </c>
@@ -27589,7 +27631,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>2173</v>
       </c>
@@ -27612,7 +27654,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>2175</v>
       </c>
@@ -27635,7 +27677,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>2177</v>
       </c>
@@ -27658,7 +27700,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>2179</v>
       </c>
@@ -27681,7 +27723,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>2181</v>
       </c>
@@ -27704,7 +27746,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="164" spans="1:14">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>2183</v>
       </c>
@@ -27727,7 +27769,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>2185</v>
       </c>
@@ -27750,7 +27792,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>2187</v>
       </c>
@@ -27773,7 +27815,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="167" spans="1:14">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>2189</v>
       </c>
@@ -27796,7 +27838,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="168" spans="1:14">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>2191</v>
       </c>
@@ -27819,7 +27861,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="169" spans="1:14">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>2193</v>
       </c>
@@ -27842,7 +27884,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="170" spans="1:14">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>2195</v>
       </c>
@@ -27865,7 +27907,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="171" spans="1:14">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>2197</v>
       </c>
@@ -27888,7 +27930,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="172" spans="1:14">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>2199</v>
       </c>
@@ -27911,7 +27953,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="173" spans="1:14">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>2201</v>
       </c>
@@ -27934,7 +27976,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="174" spans="1:14">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>2203</v>
       </c>
@@ -27957,7 +27999,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="175" spans="1:14">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2205</v>
       </c>
@@ -27980,7 +28022,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="176" spans="1:14">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>2207</v>
       </c>
@@ -28003,7 +28045,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="177" spans="1:14">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>2209</v>
       </c>
@@ -28026,7 +28068,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="178" spans="1:14">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>2211</v>
       </c>
@@ -28049,7 +28091,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="179" spans="1:14">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>2213</v>
       </c>
@@ -28072,7 +28114,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="180" spans="1:14">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>2215</v>
       </c>
@@ -28095,7 +28137,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="181" spans="1:14">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>2217</v>
       </c>
@@ -28118,7 +28160,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="182" spans="1:14">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>2219</v>
       </c>
@@ -28141,7 +28183,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="183" spans="1:14">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>2221</v>
       </c>
@@ -28164,7 +28206,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="184" spans="1:14">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>2223</v>
       </c>
@@ -28187,7 +28229,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="185" spans="1:14">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>2225</v>
       </c>
@@ -28210,7 +28252,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="186" spans="1:14">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>2227</v>
       </c>
@@ -28233,7 +28275,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="187" spans="1:14">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>2229</v>
       </c>
@@ -28256,7 +28298,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="188" spans="1:14">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>2231</v>
       </c>
@@ -28279,7 +28321,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="189" spans="1:14">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>2233</v>
       </c>
@@ -28302,7 +28344,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="190" spans="1:14">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>2235</v>
       </c>
@@ -28325,7 +28367,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="191" spans="1:14">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>2237</v>
       </c>
@@ -28348,7 +28390,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="192" spans="1:14">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>2239</v>
       </c>
@@ -28371,7 +28413,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="193" spans="1:14">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>2241</v>
       </c>
@@ -28394,7 +28436,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="194" spans="1:14">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>2243</v>
       </c>
@@ -28417,7 +28459,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="195" spans="1:14">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>2245</v>
       </c>
@@ -28440,7 +28482,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="196" spans="1:14">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>2247</v>
       </c>
@@ -28463,7 +28505,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="197" spans="1:14">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>2249</v>
       </c>
@@ -28486,7 +28528,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="198" spans="1:14">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>2251</v>
       </c>
@@ -28509,7 +28551,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="199" spans="1:14">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>2253</v>
       </c>
@@ -28532,7 +28574,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="200" spans="1:14">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>2255</v>
       </c>
@@ -28555,7 +28597,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="201" spans="1:14">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>2257</v>
       </c>
@@ -28578,7 +28620,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="202" spans="1:14">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>2259</v>
       </c>
@@ -28601,7 +28643,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="203" spans="1:14">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>2261</v>
       </c>
@@ -28624,7 +28666,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="204" spans="1:14">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>2263</v>
       </c>
@@ -28647,7 +28689,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="205" spans="1:14">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>2265</v>
       </c>
@@ -28670,7 +28712,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="206" spans="1:14">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>2267</v>
       </c>
@@ -28693,7 +28735,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="207" spans="1:14">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>2269</v>
       </c>
@@ -28716,7 +28758,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="208" spans="1:14">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>2271</v>
       </c>
@@ -28739,7 +28781,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="209" spans="1:14">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2273</v>
       </c>
@@ -28762,7 +28804,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="210" spans="1:14">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>2275</v>
       </c>
@@ -28785,7 +28827,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="211" spans="1:14">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>2277</v>
       </c>
@@ -28808,7 +28850,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="212" spans="1:14">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>2279</v>
       </c>
@@ -28831,7 +28873,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="213" spans="1:14">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>2281</v>
       </c>
@@ -28854,7 +28896,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="214" spans="1:14">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>2283</v>
       </c>
@@ -28877,7 +28919,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="215" spans="1:14">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>2285</v>
       </c>
@@ -28900,7 +28942,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="216" spans="1:14">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>2287</v>
       </c>
@@ -28923,7 +28965,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="217" spans="1:14">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>2289</v>
       </c>
@@ -28946,7 +28988,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="218" spans="1:14">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>2291</v>
       </c>
@@ -28969,7 +29011,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="219" spans="1:14">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>2293</v>
       </c>
@@ -28992,7 +29034,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="220" spans="1:14">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2295</v>
       </c>
@@ -29015,7 +29057,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="221" spans="1:14">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2297</v>
       </c>
@@ -29038,7 +29080,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="222" spans="1:14">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2299</v>
       </c>
@@ -29061,7 +29103,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="223" spans="1:14">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2301</v>
       </c>
@@ -29084,7 +29126,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="224" spans="1:14">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2303</v>
       </c>
@@ -29107,7 +29149,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="225" spans="1:14">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2305</v>
       </c>
@@ -29130,7 +29172,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="226" spans="1:14">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2307</v>
       </c>
@@ -29153,7 +29195,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="227" spans="1:14">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2309</v>
       </c>
@@ -29176,7 +29218,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="228" spans="1:14">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2311</v>
       </c>
@@ -29199,7 +29241,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="229" spans="1:14">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2313</v>
       </c>
@@ -29222,7 +29264,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="230" spans="1:14">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2315</v>
       </c>
@@ -29245,7 +29287,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="231" spans="1:14">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2317</v>
       </c>
@@ -29268,7 +29310,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="232" spans="1:14">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2319</v>
       </c>
@@ -29291,7 +29333,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="233" spans="1:14">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>2321</v>
       </c>
@@ -29314,7 +29356,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="234" spans="1:14">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>2323</v>
       </c>
@@ -29337,7 +29379,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2325</v>
       </c>
@@ -29360,7 +29402,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2327</v>
       </c>
@@ -29383,7 +29425,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>2329</v>
       </c>
@@ -29406,7 +29448,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2331</v>
       </c>
@@ -29429,7 +29471,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2333</v>
       </c>
@@ -29452,7 +29494,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2335</v>
       </c>
@@ -29475,7 +29517,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2337</v>
       </c>
@@ -29498,7 +29540,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2339</v>
       </c>
@@ -29521,7 +29563,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2341</v>
       </c>
@@ -29544,7 +29586,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2343</v>
       </c>
@@ -29567,7 +29609,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2345</v>
       </c>
@@ -29590,7 +29632,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="246" spans="1:14">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2347</v>
       </c>
@@ -29613,7 +29655,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="247" spans="1:14">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2349</v>
       </c>
@@ -29636,7 +29678,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="248" spans="1:14">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2351</v>
       </c>
@@ -29659,7 +29701,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="249" spans="1:14">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2353</v>
       </c>
@@ -29682,7 +29724,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="250" spans="1:14">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2355</v>
       </c>
@@ -29705,7 +29747,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="251" spans="1:14">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2357</v>
       </c>
@@ -29728,7 +29770,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="252" spans="1:14">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2359</v>
       </c>
@@ -29751,7 +29793,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="253" spans="1:14">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2361</v>
       </c>
@@ -29774,7 +29816,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="254" spans="1:14">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2363</v>
       </c>
@@ -29797,7 +29839,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="255" spans="1:14">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2365</v>
       </c>
@@ -29820,7 +29862,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="256" spans="1:14">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2367</v>
       </c>
@@ -29843,7 +29885,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="257" spans="1:14">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2369</v>
       </c>
@@ -29866,7 +29908,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="258" spans="1:14">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2371</v>
       </c>
@@ -29889,7 +29931,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="259" spans="1:14">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2373</v>
       </c>
@@ -29912,7 +29954,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="260" spans="1:14">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2375</v>
       </c>
@@ -29935,7 +29977,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="261" spans="1:14">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2377</v>
       </c>
@@ -29958,7 +30000,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="262" spans="1:14">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2379</v>
       </c>
@@ -29981,7 +30023,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="263" spans="1:14">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2381</v>
       </c>
@@ -30004,7 +30046,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="264" spans="1:14">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2383</v>
       </c>
@@ -30027,7 +30069,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="265" spans="1:14">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2385</v>
       </c>
@@ -30050,7 +30092,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="266" spans="1:14">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2387</v>
       </c>
@@ -30073,7 +30115,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="267" spans="1:14">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2389</v>
       </c>
@@ -30096,7 +30138,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="268" spans="1:14">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>2391</v>
       </c>
@@ -30119,7 +30161,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="269" spans="1:14">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>2393</v>
       </c>
@@ -30142,7 +30184,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="270" spans="1:14">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>2395</v>
       </c>
@@ -30165,7 +30207,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="271" spans="1:14">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>2397</v>
       </c>
@@ -30188,7 +30230,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="272" spans="1:14">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2399</v>
       </c>
@@ -30211,7 +30253,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="273" spans="1:14">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>2401</v>
       </c>
@@ -30234,7 +30276,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="274" spans="1:14">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2403</v>
       </c>
@@ -30257,7 +30299,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="275" spans="1:14">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2405</v>
       </c>
@@ -30280,7 +30322,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="276" spans="1:14">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2407</v>
       </c>
@@ -30303,7 +30345,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="277" spans="1:14">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2409</v>
       </c>
@@ -30326,7 +30368,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="278" spans="1:14">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>2411</v>
       </c>
@@ -30349,7 +30391,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="279" spans="1:14">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2413</v>
       </c>
@@ -30372,7 +30414,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="280" spans="1:14">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2415</v>
       </c>
@@ -30395,7 +30437,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="281" spans="1:14">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2417</v>
       </c>
@@ -30418,7 +30460,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="282" spans="1:14">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2419</v>
       </c>
@@ -30441,7 +30483,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="283" spans="1:14">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>2421</v>
       </c>
@@ -30464,7 +30506,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="284" spans="1:14">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2423</v>
       </c>
@@ -30487,7 +30529,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="285" spans="1:14">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>2425</v>
       </c>
@@ -30510,7 +30552,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="286" spans="1:14">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>2427</v>
       </c>
@@ -30533,7 +30575,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="287" spans="1:14">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2429</v>
       </c>
@@ -30556,7 +30598,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="288" spans="1:14">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>2431</v>
       </c>
@@ -30579,7 +30621,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="289" spans="1:14">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>2433</v>
       </c>
@@ -30602,7 +30644,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="290" spans="1:14">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2435</v>
       </c>
@@ -30625,7 +30667,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="291" spans="1:14">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2437</v>
       </c>
@@ -30648,7 +30690,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="292" spans="1:14">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2439</v>
       </c>
@@ -30671,7 +30713,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="293" spans="1:14">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>2441</v>
       </c>
@@ -30694,7 +30736,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="294" spans="1:14">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2443</v>
       </c>
@@ -30717,7 +30759,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="295" spans="1:14">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2445</v>
       </c>
@@ -30740,7 +30782,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="296" spans="1:14">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>2447</v>
       </c>
@@ -30763,7 +30805,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="297" spans="1:14">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2449</v>
       </c>
@@ -30786,7 +30828,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="298" spans="1:14">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2451</v>
       </c>
@@ -30809,7 +30851,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="299" spans="1:14">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2453</v>
       </c>
@@ -30832,7 +30874,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="300" spans="1:14">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>2455</v>
       </c>
@@ -30855,7 +30897,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="301" spans="1:14">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2457</v>
       </c>
@@ -30878,7 +30920,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="302" spans="1:14">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>2459</v>
       </c>
@@ -30901,7 +30943,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="303" spans="1:14">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2461</v>
       </c>
@@ -30924,7 +30966,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="304" spans="1:14">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2463</v>
       </c>
@@ -30947,7 +30989,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="305" spans="1:14">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2465</v>
       </c>
@@ -30970,7 +31012,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="306" spans="1:14">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2467</v>
       </c>
@@ -30993,7 +31035,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="307" spans="1:14">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>2469</v>
       </c>
@@ -31016,7 +31058,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="308" spans="1:14">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>2471</v>
       </c>
@@ -31039,7 +31081,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="309" spans="1:14">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2473</v>
       </c>
@@ -31062,7 +31104,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="310" spans="1:14">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2475</v>
       </c>
@@ -31085,7 +31127,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="311" spans="1:14">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2477</v>
       </c>
@@ -31108,7 +31150,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="312" spans="1:14">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2479</v>
       </c>
@@ -31131,7 +31173,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="313" spans="1:14">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2481</v>
       </c>
@@ -31154,7 +31196,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="314" spans="1:14">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2483</v>
       </c>
@@ -31177,7 +31219,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="315" spans="1:14">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2485</v>
       </c>
@@ -31200,7 +31242,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="316" spans="1:14">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2487</v>
       </c>
@@ -31223,7 +31265,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="317" spans="1:14">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2489</v>
       </c>
@@ -31246,7 +31288,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="318" spans="1:14">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>2491</v>
       </c>
@@ -31269,7 +31311,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="319" spans="1:14">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>2493</v>
       </c>
@@ -31292,7 +31334,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="320" spans="1:14">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>2495</v>
       </c>
@@ -31315,7 +31357,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="321" spans="1:14">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2497</v>
       </c>
@@ -31338,7 +31380,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="322" spans="1:14">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>2499</v>
       </c>
@@ -31361,7 +31403,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="323" spans="1:14">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>2501</v>
       </c>
@@ -31384,7 +31426,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="324" spans="1:14">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>2503</v>
       </c>
@@ -31407,7 +31449,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="325" spans="1:14">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>2505</v>
       </c>
@@ -31430,7 +31472,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="326" spans="1:14">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>2507</v>
       </c>
@@ -31453,7 +31495,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="327" spans="1:14">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>2509</v>
       </c>
@@ -31476,7 +31518,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="328" spans="1:14">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>2511</v>
       </c>
@@ -31499,7 +31541,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="329" spans="1:14">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>2513</v>
       </c>
@@ -31522,7 +31564,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="330" spans="1:14">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>2515</v>
       </c>
@@ -31545,7 +31587,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="331" spans="1:14">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>2517</v>
       </c>
@@ -31568,7 +31610,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="332" spans="1:14">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>2519</v>
       </c>
@@ -31591,7 +31633,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="333" spans="1:14">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>2521</v>
       </c>
@@ -31614,7 +31656,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="334" spans="1:14">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>2523</v>
       </c>
@@ -31637,7 +31679,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="335" spans="1:14">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>2525</v>
       </c>
@@ -31660,7 +31702,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="336" spans="1:14">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>2527</v>
       </c>
@@ -31683,7 +31725,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="337" spans="1:14">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>2529</v>
       </c>
@@ -31706,7 +31748,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="338" spans="1:14">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>2531</v>
       </c>
@@ -31729,7 +31771,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="339" spans="1:14">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>2533</v>
       </c>
@@ -31752,7 +31794,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="340" spans="1:14">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>2535</v>
       </c>
@@ -31775,7 +31817,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="341" spans="1:14">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>2537</v>
       </c>
@@ -31798,7 +31840,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="342" spans="1:14">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2539</v>
       </c>
@@ -31821,7 +31863,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="343" spans="1:14">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>2541</v>
       </c>
@@ -31844,7 +31886,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="344" spans="1:14">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>2543</v>
       </c>
@@ -31867,7 +31909,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="345" spans="1:14">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>2545</v>
       </c>
@@ -31890,7 +31932,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="346" spans="1:14">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>2547</v>
       </c>
@@ -31913,7 +31955,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="347" spans="1:14">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>2549</v>
       </c>
@@ -31936,7 +31978,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="348" spans="1:14">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>2551</v>
       </c>
@@ -31959,7 +32001,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="349" spans="1:14">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>2553</v>
       </c>
@@ -31982,7 +32024,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="350" spans="1:14">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>2555</v>
       </c>
@@ -32005,7 +32047,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="351" spans="1:14">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>2557</v>
       </c>
@@ -32028,7 +32070,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="352" spans="1:14">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>2559</v>
       </c>
@@ -32051,7 +32093,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>2561</v>
       </c>
@@ -32074,7 +32116,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="354" spans="1:14">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>2563</v>
       </c>
@@ -32097,7 +32139,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="355" spans="1:14">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>2565</v>
       </c>
@@ -32120,7 +32162,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="356" spans="1:14">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>2567</v>
       </c>
@@ -32143,7 +32185,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="357" spans="1:14">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>2569</v>
       </c>
@@ -32166,7 +32208,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>2571</v>
       </c>
@@ -32189,7 +32231,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="359" spans="1:14">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>2573</v>
       </c>
@@ -32212,7 +32254,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="360" spans="1:14">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>2575</v>
       </c>
@@ -32235,7 +32277,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="361" spans="1:14">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>2577</v>
       </c>
@@ -32258,7 +32300,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="362" spans="1:14">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>2579</v>
       </c>
@@ -32281,7 +32323,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="363" spans="1:14">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>2581</v>
       </c>
@@ -32304,7 +32346,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="364" spans="1:14">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>2583</v>
       </c>
@@ -32327,7 +32369,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="365" spans="1:14">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>2585</v>
       </c>
@@ -32350,7 +32392,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="366" spans="1:14">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>2587</v>
       </c>
@@ -32373,7 +32415,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="367" spans="1:14">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>2589</v>
       </c>
@@ -32396,7 +32438,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="368" spans="1:14">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>2591</v>
       </c>
@@ -32419,7 +32461,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="369" spans="1:14">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>2593</v>
       </c>
@@ -32442,7 +32484,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="370" spans="1:14">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>2595</v>
       </c>
@@ -32465,7 +32507,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="371" spans="1:14">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>2597</v>
       </c>
@@ -32488,7 +32530,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="372" spans="1:14">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>2599</v>
       </c>
@@ -32511,7 +32553,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="373" spans="1:14">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>2601</v>
       </c>
@@ -32534,7 +32576,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="374" spans="1:14">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>2603</v>
       </c>
@@ -32557,7 +32599,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="375" spans="1:14">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>2605</v>
       </c>
@@ -32580,7 +32622,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="376" spans="1:14">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>2607</v>
       </c>
@@ -32603,7 +32645,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="377" spans="1:14">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>2609</v>
       </c>
@@ -32626,7 +32668,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="378" spans="1:14">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>2611</v>
       </c>
@@ -32649,7 +32691,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="379" spans="1:14">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>2613</v>
       </c>
@@ -32672,7 +32714,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="380" spans="1:14">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>2615</v>
       </c>
@@ -32695,7 +32737,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="381" spans="1:14">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>2617</v>
       </c>
@@ -32718,7 +32760,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="382" spans="1:14">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>2619</v>
       </c>
@@ -32741,7 +32783,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="383" spans="1:14">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>2621</v>
       </c>
@@ -32764,7 +32806,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="384" spans="1:14">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>2623</v>
       </c>
@@ -32787,7 +32829,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="385" spans="1:14">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>2625</v>
       </c>
@@ -32810,7 +32852,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="386" spans="1:14">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>2627</v>
       </c>
@@ -32833,7 +32875,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="387" spans="1:14">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>2629</v>
       </c>
@@ -32856,7 +32898,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="388" spans="1:14">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>2631</v>
       </c>
@@ -32879,7 +32921,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="389" spans="1:14">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>2633</v>
       </c>
@@ -32902,7 +32944,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="390" spans="1:14">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>2635</v>
       </c>
@@ -32925,7 +32967,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="391" spans="1:14">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>2637</v>
       </c>
@@ -32948,7 +32990,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="392" spans="1:14">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>2639</v>
       </c>
@@ -32977,34 +33019,36 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" customWidth="1"/>
-    <col min="3" max="3" width="705.7109375" customWidth="1"/>
-    <col min="4" max="4" width="66.7109375" customWidth="1"/>
-    <col min="5" max="5" width="67.7109375" customWidth="1"/>
-    <col min="6" max="6" width="69.7109375" customWidth="1"/>
-    <col min="7" max="7" width="70.7109375" customWidth="1"/>
-    <col min="8" max="8" width="59.7109375" customWidth="1"/>
-    <col min="9" max="9" width="141.7109375" customWidth="1"/>
-    <col min="10" max="10" width="59.7109375" customWidth="1"/>
-    <col min="11" max="11" width="76.7109375" customWidth="1"/>
-    <col min="12" max="12" width="91.7109375" customWidth="1"/>
-    <col min="13" max="13" width="58.7109375" customWidth="1"/>
-    <col min="14" max="14" width="141.7109375" customWidth="1"/>
-    <col min="15" max="15" width="62.7109375" customWidth="1"/>
-    <col min="16" max="16" width="50.7109375" customWidth="1"/>
-    <col min="17" max="17" width="56.7109375" customWidth="1"/>
-    <col min="18" max="18" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
+    <col min="3" max="3" width="705.6640625" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" customWidth="1"/>
+    <col min="5" max="5" width="67.6640625" customWidth="1"/>
+    <col min="6" max="6" width="69.6640625" customWidth="1"/>
+    <col min="7" max="7" width="70.6640625" customWidth="1"/>
+    <col min="8" max="8" width="59.6640625" customWidth="1"/>
+    <col min="9" max="9" width="141.6640625" customWidth="1"/>
+    <col min="10" max="10" width="59.6640625" customWidth="1"/>
+    <col min="11" max="11" width="76.6640625" customWidth="1"/>
+    <col min="12" max="12" width="91.6640625" customWidth="1"/>
+    <col min="13" max="13" width="58.6640625" customWidth="1"/>
+    <col min="14" max="14" width="141.6640625" customWidth="1"/>
+    <col min="15" max="15" width="62.6640625" customWidth="1"/>
+    <col min="16" max="16" width="50.6640625" customWidth="1"/>
+    <col min="17" max="17" width="56.6640625" customWidth="1"/>
+    <col min="18" max="18" width="99.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1832</v>
       </c>
@@ -33060,7 +33104,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -33116,7 +33160,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>139</v>
       </c>
@@ -33166,7 +33210,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1863</v>
       </c>
@@ -33222,12 +33266,12 @@
         <v>2686</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>1868</v>
       </c>
@@ -33236,6 +33280,9 @@
       </c>
       <c r="G6" t="s">
         <v>2687</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2793</v>
       </c>
     </row>
   </sheetData>
@@ -33244,76 +33291,73 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BH12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.7109375" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="78.7109375" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="62.7109375" customWidth="1"/>
-    <col min="7" max="7" width="176.7109375" customWidth="1"/>
-    <col min="8" max="8" width="171.7109375" customWidth="1"/>
-    <col min="9" max="9" width="134.7109375" customWidth="1"/>
-    <col min="10" max="10" width="62.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.7109375" customWidth="1"/>
-    <col min="12" max="12" width="141.7109375" customWidth="1"/>
-    <col min="13" max="13" width="69.7109375" customWidth="1"/>
-    <col min="14" max="14" width="58.7109375" customWidth="1"/>
-    <col min="15" max="15" width="141.7109375" customWidth="1"/>
-    <col min="16" max="16" width="96.7109375" customWidth="1"/>
-    <col min="17" max="17" width="58.7109375" customWidth="1"/>
-    <col min="18" max="18" width="141.7109375" customWidth="1"/>
-    <col min="19" max="19" width="81.7109375" customWidth="1"/>
-    <col min="20" max="20" width="58.7109375" customWidth="1"/>
-    <col min="21" max="21" width="141.7109375" customWidth="1"/>
-    <col min="22" max="22" width="57.7109375" customWidth="1"/>
-    <col min="23" max="23" width="76.7109375" customWidth="1"/>
-    <col min="24" max="24" width="80.7109375" customWidth="1"/>
-    <col min="25" max="25" width="62.7109375" customWidth="1"/>
-    <col min="26" max="26" width="121.7109375" customWidth="1"/>
-    <col min="27" max="27" width="97.7109375" customWidth="1"/>
-    <col min="28" max="28" width="86.7109375" customWidth="1"/>
-    <col min="29" max="29" width="99.7109375" customWidth="1"/>
-    <col min="30" max="30" width="101.7109375" customWidth="1"/>
-    <col min="31" max="31" width="69.7109375" customWidth="1"/>
-    <col min="32" max="32" width="69.7109375" customWidth="1"/>
-    <col min="33" max="33" width="71.7109375" customWidth="1"/>
-    <col min="34" max="34" width="141.7109375" customWidth="1"/>
-    <col min="35" max="35" width="158.7109375" customWidth="1"/>
-    <col min="36" max="36" width="136.7109375" customWidth="1"/>
-    <col min="37" max="37" width="90.7109375" customWidth="1"/>
-    <col min="38" max="38" width="57.7109375" customWidth="1"/>
-    <col min="39" max="39" width="55.7109375" customWidth="1"/>
-    <col min="40" max="40" width="53.7109375" customWidth="1"/>
-    <col min="41" max="41" width="111.7109375" customWidth="1"/>
-    <col min="42" max="42" width="91.7109375" customWidth="1"/>
-    <col min="43" max="43" width="72.7109375" customWidth="1"/>
-    <col min="44" max="44" width="71.7109375" customWidth="1"/>
-    <col min="45" max="45" width="32.7109375" customWidth="1"/>
-    <col min="46" max="46" width="67.7109375" customWidth="1"/>
-    <col min="47" max="47" width="41.7109375" customWidth="1"/>
-    <col min="48" max="48" width="84.7109375" customWidth="1"/>
-    <col min="49" max="49" width="104.7109375" customWidth="1"/>
-    <col min="50" max="50" width="104.7109375" customWidth="1"/>
-    <col min="51" max="51" width="104.7109375" customWidth="1"/>
-    <col min="52" max="52" width="88.7109375" customWidth="1"/>
-    <col min="53" max="53" width="69.7109375" customWidth="1"/>
-    <col min="54" max="54" width="58.7109375" customWidth="1"/>
-    <col min="55" max="55" width="141.7109375" customWidth="1"/>
-    <col min="56" max="56" width="67.7109375" customWidth="1"/>
-    <col min="57" max="57" width="58.7109375" customWidth="1"/>
-    <col min="58" max="58" width="141.7109375" customWidth="1"/>
-    <col min="59" max="59" width="79.7109375" customWidth="1"/>
-    <col min="60" max="60" width="175.7109375" customWidth="1"/>
+    <col min="1" max="1" width="80.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="78.6640625" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="62.6640625" customWidth="1"/>
+    <col min="7" max="7" width="176.6640625" customWidth="1"/>
+    <col min="8" max="8" width="171.6640625" customWidth="1"/>
+    <col min="9" max="9" width="134.6640625" customWidth="1"/>
+    <col min="10" max="10" width="62.6640625" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" customWidth="1"/>
+    <col min="12" max="12" width="141.6640625" customWidth="1"/>
+    <col min="13" max="13" width="69.6640625" customWidth="1"/>
+    <col min="14" max="14" width="58.6640625" customWidth="1"/>
+    <col min="15" max="15" width="141.6640625" customWidth="1"/>
+    <col min="16" max="16" width="96.6640625" customWidth="1"/>
+    <col min="17" max="17" width="58.6640625" customWidth="1"/>
+    <col min="18" max="18" width="141.6640625" customWidth="1"/>
+    <col min="19" max="19" width="81.6640625" customWidth="1"/>
+    <col min="20" max="20" width="58.6640625" customWidth="1"/>
+    <col min="21" max="21" width="141.6640625" customWidth="1"/>
+    <col min="22" max="22" width="57.6640625" customWidth="1"/>
+    <col min="23" max="23" width="76.6640625" customWidth="1"/>
+    <col min="24" max="24" width="80.6640625" customWidth="1"/>
+    <col min="25" max="25" width="62.6640625" customWidth="1"/>
+    <col min="26" max="26" width="121.6640625" customWidth="1"/>
+    <col min="27" max="27" width="97.6640625" customWidth="1"/>
+    <col min="28" max="28" width="86.6640625" customWidth="1"/>
+    <col min="29" max="29" width="99.6640625" customWidth="1"/>
+    <col min="30" max="30" width="101.6640625" customWidth="1"/>
+    <col min="31" max="32" width="69.6640625" customWidth="1"/>
+    <col min="33" max="33" width="71.6640625" customWidth="1"/>
+    <col min="34" max="34" width="141.6640625" customWidth="1"/>
+    <col min="35" max="35" width="158.6640625" customWidth="1"/>
+    <col min="36" max="36" width="136.6640625" customWidth="1"/>
+    <col min="37" max="37" width="90.6640625" customWidth="1"/>
+    <col min="38" max="38" width="57.6640625" customWidth="1"/>
+    <col min="39" max="39" width="55.6640625" customWidth="1"/>
+    <col min="40" max="40" width="53.6640625" customWidth="1"/>
+    <col min="41" max="41" width="111.6640625" customWidth="1"/>
+    <col min="42" max="42" width="91.6640625" customWidth="1"/>
+    <col min="43" max="43" width="72.6640625" customWidth="1"/>
+    <col min="44" max="44" width="71.6640625" customWidth="1"/>
+    <col min="45" max="45" width="32.6640625" customWidth="1"/>
+    <col min="46" max="46" width="67.6640625" customWidth="1"/>
+    <col min="47" max="47" width="41.6640625" customWidth="1"/>
+    <col min="48" max="48" width="84.6640625" customWidth="1"/>
+    <col min="49" max="51" width="104.6640625" customWidth="1"/>
+    <col min="52" max="52" width="88.6640625" customWidth="1"/>
+    <col min="53" max="53" width="69.6640625" customWidth="1"/>
+    <col min="54" max="54" width="58.6640625" customWidth="1"/>
+    <col min="55" max="55" width="141.6640625" customWidth="1"/>
+    <col min="56" max="56" width="67.6640625" customWidth="1"/>
+    <col min="57" max="57" width="58.6640625" customWidth="1"/>
+    <col min="58" max="58" width="141.6640625" customWidth="1"/>
+    <col min="59" max="59" width="79.6640625" customWidth="1"/>
+    <col min="60" max="60" width="175.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -33495,7 +33539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:60">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>59</v>
       </c>
@@ -33677,7 +33721,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:60">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
         <v>105</v>
       </c>
@@ -33838,7 +33882,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="1:60">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -34020,12 +34064,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:60">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:60">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>215</v>
       </c>
@@ -34039,7 +34083,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="7" spans="1:60">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>505</v>
       </c>
@@ -34053,7 +34097,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="8" spans="1:60">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>795</v>
       </c>
@@ -34067,7 +34111,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="9" spans="1:60">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1094</v>
       </c>
@@ -34081,7 +34125,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="10" spans="1:60">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1167</v>
       </c>
@@ -34095,7 +34139,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="11" spans="1:60">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>1240</v>
       </c>
@@ -34109,7 +34153,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="12" spans="1:60">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1313</v>
       </c>
